--- a/out/img/core/BR_262_training_testing_data.xlsx
+++ b/out/img/core/BR_262_training_testing_data.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1792</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>13231</v>
+        <v>370468</v>
       </c>
     </row>
     <row r="3">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1932</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>10553</v>
+        <v>295484</v>
       </c>
     </row>
     <row r="4">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1820</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>11457</v>
+        <v>320796</v>
       </c>
     </row>
     <row r="5">
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1624</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>13313</v>
+        <v>372764</v>
       </c>
     </row>
     <row r="6">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1456</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>10747</v>
+        <v>300916</v>
       </c>
     </row>
     <row r="7">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1484</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n">
-        <v>13285</v>
+        <v>371980</v>
       </c>
     </row>
     <row r="8">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1372</v>
+        <v>49</v>
       </c>
       <c r="D8" t="n">
-        <v>15308</v>
+        <v>428624</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1596</v>
+        <v>57</v>
       </c>
       <c r="D9" t="n">
-        <v>13782</v>
+        <v>385896</v>
       </c>
     </row>
     <row r="10">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1428</v>
+        <v>51</v>
       </c>
       <c r="D10" t="n">
-        <v>13726</v>
+        <v>384328</v>
       </c>
     </row>
     <row r="11">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1848</v>
+        <v>66</v>
       </c>
       <c r="D11" t="n">
-        <v>13985</v>
+        <v>391580</v>
       </c>
     </row>
     <row r="12">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1904</v>
+        <v>68</v>
       </c>
       <c r="D12" t="n">
-        <v>13381</v>
+        <v>374668</v>
       </c>
     </row>
     <row r="13">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1792</v>
+        <v>64</v>
       </c>
       <c r="D13" t="n">
-        <v>15715</v>
+        <v>440020</v>
       </c>
     </row>
     <row r="14">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1204</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>15844</v>
+        <v>443632</v>
       </c>
     </row>
     <row r="15">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1232</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>12632</v>
+        <v>353696</v>
       </c>
     </row>
     <row r="16">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1904</v>
+        <v>68</v>
       </c>
       <c r="D16" t="n">
-        <v>14073</v>
+        <v>394044</v>
       </c>
     </row>
     <row r="17">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1232</v>
+        <v>44</v>
       </c>
       <c r="D17" t="n">
-        <v>13740</v>
+        <v>384720</v>
       </c>
     </row>
     <row r="18">
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1708</v>
+        <v>61</v>
       </c>
       <c r="D18" t="n">
-        <v>13834</v>
+        <v>387352</v>
       </c>
     </row>
     <row r="19">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1372</v>
+        <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>14088</v>
+        <v>394464</v>
       </c>
     </row>
     <row r="20">
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1792</v>
+        <v>64</v>
       </c>
       <c r="D20" t="n">
-        <v>16153</v>
+        <v>452284</v>
       </c>
     </row>
     <row r="21">
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1596</v>
+        <v>57</v>
       </c>
       <c r="D21" t="n">
-        <v>14719</v>
+        <v>412132</v>
       </c>
     </row>
     <row r="22">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1512</v>
+        <v>54</v>
       </c>
       <c r="D22" t="n">
-        <v>14254</v>
+        <v>399112</v>
       </c>
     </row>
     <row r="23">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2100</v>
+        <v>75</v>
       </c>
       <c r="D23" t="n">
-        <v>14957</v>
+        <v>418796</v>
       </c>
     </row>
     <row r="24">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1540</v>
+        <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>14345</v>
+        <v>401660</v>
       </c>
     </row>
     <row r="25">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1512</v>
+        <v>54</v>
       </c>
       <c r="D25" t="n">
-        <v>16518</v>
+        <v>462504</v>
       </c>
     </row>
     <row r="26">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1764</v>
+        <v>63</v>
       </c>
       <c r="D26" t="n">
-        <v>16034</v>
+        <v>448952</v>
       </c>
     </row>
     <row r="27">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1428</v>
+        <v>51</v>
       </c>
       <c r="D27" t="n">
-        <v>13467</v>
+        <v>377076</v>
       </c>
     </row>
     <row r="28">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1428</v>
+        <v>51</v>
       </c>
       <c r="D28" t="n">
-        <v>12435</v>
+        <v>348180</v>
       </c>
     </row>
     <row r="29">
@@ -898,10 +898,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1344</v>
+        <v>48</v>
       </c>
       <c r="D29" t="n">
-        <v>8022</v>
+        <v>224616</v>
       </c>
     </row>
     <row r="30">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1400</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
-        <v>11139</v>
+        <v>311892</v>
       </c>
     </row>
     <row r="31">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1456</v>
+        <v>52</v>
       </c>
       <c r="D31" t="n">
-        <v>11888</v>
+        <v>332864</v>
       </c>
     </row>
     <row r="32">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1456</v>
+        <v>52</v>
       </c>
       <c r="D32" t="n">
-        <v>13413</v>
+        <v>375564</v>
       </c>
     </row>
     <row r="33">
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1764</v>
+        <v>63</v>
       </c>
       <c r="D33" t="n">
-        <v>14170</v>
+        <v>396760</v>
       </c>
     </row>
     <row r="34">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1960</v>
+        <v>70</v>
       </c>
       <c r="D34" t="n">
-        <v>14730</v>
+        <v>412440</v>
       </c>
     </row>
     <row r="35">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1792</v>
+        <v>64</v>
       </c>
       <c r="D35" t="n">
-        <v>15851</v>
+        <v>443828</v>
       </c>
     </row>
     <row r="36">
@@ -1010,10 +1010,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1904</v>
+        <v>68</v>
       </c>
       <c r="D36" t="n">
-        <v>14125</v>
+        <v>395500</v>
       </c>
     </row>
     <row r="37">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1904</v>
+        <v>68</v>
       </c>
       <c r="D37" t="n">
-        <v>16485</v>
+        <v>461580</v>
       </c>
     </row>
     <row r="38">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1652</v>
+        <v>59</v>
       </c>
       <c r="D38" t="n">
-        <v>14941</v>
+        <v>418348</v>
       </c>
     </row>
     <row r="39">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>35806</v>
+        <v>55</v>
       </c>
       <c r="D39" t="n">
-        <v>1339</v>
+        <v>886418</v>
       </c>
     </row>
     <row r="40">
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>33240</v>
+        <v>46</v>
       </c>
       <c r="D40" t="n">
-        <v>1592</v>
+        <v>1168528</v>
       </c>
     </row>
     <row r="41">
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>42670</v>
+        <v>61</v>
       </c>
       <c r="D41" t="n">
-        <v>1246</v>
+        <v>874692</v>
       </c>
     </row>
     <row r="42">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>41518</v>
+        <v>57</v>
       </c>
       <c r="D42" t="n">
-        <v>1329</v>
+        <v>974157</v>
       </c>
     </row>
     <row r="43">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>29897</v>
+        <v>43</v>
       </c>
       <c r="D43" t="n">
-        <v>1239</v>
+        <v>859866</v>
       </c>
     </row>
     <row r="44">
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>38100</v>
+        <v>52</v>
       </c>
       <c r="D44" t="n">
-        <v>1372</v>
+        <v>1011164</v>
       </c>
     </row>
     <row r="45">
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>39721</v>
+        <v>54</v>
       </c>
       <c r="D45" t="n">
-        <v>1404</v>
+        <v>1036152</v>
       </c>
     </row>
     <row r="46">
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>33995</v>
+        <v>48</v>
       </c>
       <c r="D46" t="n">
-        <v>1414</v>
+        <v>1006768</v>
       </c>
     </row>
     <row r="47">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>50815</v>
+        <v>69</v>
       </c>
       <c r="D47" t="n">
-        <v>1412</v>
+        <v>1037820</v>
       </c>
     </row>
     <row r="48">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>40875</v>
+        <v>58</v>
       </c>
       <c r="D48" t="n">
-        <v>1374</v>
+        <v>972792</v>
       </c>
     </row>
     <row r="49">
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>43488</v>
+        <v>60</v>
       </c>
       <c r="D49" t="n">
-        <v>1557</v>
+        <v>1135053</v>
       </c>
     </row>
     <row r="50">
@@ -1234,10 +1234,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>44275</v>
+        <v>61</v>
       </c>
       <c r="D50" t="n">
-        <v>705</v>
+        <v>513945</v>
       </c>
     </row>
     <row r="51">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>29158</v>
+        <v>44</v>
       </c>
       <c r="D51" t="n">
-        <v>703</v>
+        <v>470307</v>
       </c>
     </row>
     <row r="52">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>37624</v>
+        <v>52</v>
       </c>
       <c r="D52" t="n">
-        <v>442</v>
+        <v>323986</v>
       </c>
     </row>
     <row r="53">
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>36622</v>
+        <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>751</v>
+        <v>534712</v>
       </c>
     </row>
     <row r="54">
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>49058</v>
+        <v>67</v>
       </c>
       <c r="D54" t="n">
-        <v>713</v>
+        <v>526907</v>
       </c>
     </row>
     <row r="55">
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>35738</v>
+        <v>50</v>
       </c>
       <c r="D55" t="n">
-        <v>719</v>
+        <v>517680</v>
       </c>
     </row>
     <row r="56">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>38174</v>
+        <v>52</v>
       </c>
       <c r="D56" t="n">
-        <v>792</v>
+        <v>594000</v>
       </c>
     </row>
     <row r="57">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>36991</v>
+        <v>50</v>
       </c>
       <c r="D57" t="n">
-        <v>746</v>
+        <v>559500</v>
       </c>
     </row>
     <row r="58">
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>44161</v>
+        <v>62</v>
       </c>
       <c r="D58" t="n">
-        <v>758</v>
+        <v>545002</v>
       </c>
     </row>
     <row r="59">
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>41826</v>
+        <v>57</v>
       </c>
       <c r="D59" t="n">
-        <v>754</v>
+        <v>557960</v>
       </c>
     </row>
     <row r="60">
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>44046</v>
+        <v>62</v>
       </c>
       <c r="D60" t="n">
-        <v>719</v>
+        <v>516961</v>
       </c>
     </row>
     <row r="61">
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>36647</v>
+        <v>50</v>
       </c>
       <c r="D61" t="n">
-        <v>796</v>
+        <v>590632</v>
       </c>
     </row>
   </sheetData>
@@ -1467,11 +1467,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41500</v>
+        <v>57</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>133,00</t>
+          <t>133,00119,00132,00149,0080,0087,00106,00131,00150,00145,00133,00129,00120,00160,0091,00127,00121,00119,00296,00175,00127,00103,00150,00145,00118,00101,00305,00176,00105,00159,00117,00731,00278,00812,00622,00752,00756,00727,00281,00825,00690,00755,00801,00318,00861,00192,00200,00290,00816,00811,00684,00694,00855,00239,00662,00754,00744,00139,00726,00340,00600,00675,00467,00451,00506,00516,00459,00216,00451,00528,00503,00211,00195,00425,00468,00450,00462,00498,00489,00502,00181,00496,00467,00517,00470,00477,00237,00227,00180,00426,00484,00117,00221,00311,00197,00319,00339,00356,00295,00316,00372,00299,00334,00380,00125,00122,00287,00340,0063,00177,00342,00145,00384,00283,00317,00387,00282,00361,00207,00319,00179,00241,00106,00327,00159,00189,00194,00172,00196,00193,00177,00166,00174,0082,00213,00181,00197,00173,00158,00202,00209,00170,0084,00140,0078,00121,00105,00102,00101,00175,0096,00191,00159,0062,00172,00279,00278,00147,00337,00299,00173,00254,00370,00327,00168,00271,00290,00365,00328,00398,00227,00355,00176,00330,00184,00207,00344,00221,00295,00342,00293,0083,00307,00330,00268,00236,0085,00109,00109,0059,00116,00131,0084,0090,00105,00157,0058,00144,00140,0068,00108,00136,0091,0020,0061,00104,00120,0054,0070,00122,0086,0099,00112,0081,00109,00106,00129,003,004,002,006,003,004,003,006,002,002,004,002,002,005,003,005,002,006,004,001,004,003,005,002,001,004,002,002,0010,0050,0042,0070,0080,0059,0032,0061,0056,0031,0066,0027,0071,0044,0063,0083,0037,0033,0023,0058,009,0036,0026,0030,0017,0052,0029,0064,0053,0031,0059,0051,001,001,001,001,001,003963,003933,004900,004345,004523,004226,004792,004880,004404,003798,004898,004161,003710,004971,003929,003986,003765,003862,005197,003782,004971,003920,004668,004581,003838,004296,003631,003670,003533,003976,003914,0043,0017,0015,0039,0028,008,0029,0022,0020,0019,0015,0017,0024,0014,0022,0017,0029,0025,0018,0016,0021,0014,0018,0023,0024,0031,0025,0030,0027,0013,0013,001,004,001,002,004,002,001,002,002,002,001,005,004,003,008,004,005,003,003,002,002,002,002,002,004,003,001,001,002,0080,00271,00146,0091,00117,00268,00124,00100,00139,0095,00118,00107,00145,0099,00125,00104,00100,00125,00167,00138,00118,00143,00167,00108,00129,00116,00100,0073,0098,0097,00137,00569,00562,00232,00483,00607,00218,00565,00520,00591,00597,00620,00213,00573,00546,00621,00569,00253,00441,00609,00583,00241,00547,00517,00620,00606,00214,00219,00224,00637,00603,00148,00414,00435,00487,00463,00499,00559,00532,00191,00497,00552,00397,00210,00504,00482,00474,00522,00528,00192,00315,00515,00310,00553,00430,00489,00183,00424,00338,00453,00434,00209,00340,00254,00117,00159,00285,00201,00290,0087,00290,00195,00249,00173,0092,00222,00257,00284,00224,00166,00242,00318,00260,00237,00237,00193,00169,00248,00119,00228,00111,00185,00298,00190,00134,00145,00118,00137,00131,00109,00140,00103,00175,00140,00129,00105,00135,00111,0089,00120,0090,0085,00115,00141,00117,0090,00147,00158,0072,00130,0093,00171,00139,0048,00134,00424,00367,00378,00378,00285,00387,00449,00449,00165,00199,00291,00307,00258,00306,00301,00303,00478,00371,00243,00317,00444,00390,00374,00417,00336,00317,00368,00376,00413,00216,00340,0083,0056,00104,00142,00118,00110,00136,00118,0096,0071,0064,0080,00115,0096,0046,00151,0064,0082,0075,0074,0057,00140,00120,0022,0076,0078,00134,00119,00116,00136,00140,005,004,0017,001,004,005,0011,002,007,004,0012,007,004,001,002,007,002,001,004,004,002,004,004,001,005,008,005,004,00210,00114,00171,00175,00145,00179,00157,00182,00161,00119,00178,0045,00169,00134,00139,00104,0096,00136,00168,00179,0092,00112,00119,00157,00182,00114,00148,00204,00200,0098,0088,001,001,001,001,001,003509,005039,003384,005405,003631,003577,003702,004171,003777,003445,003448,003902,003824,003286,005732,005641,004036,003484,003887,003408,003639,003935,005870,003499,003778,003546,006526,003661,003789,004206,004410,0015,0030,0018,0030,0025,0012,0028,0020,0014,0021,0028,0031,0015,0027,0021,0028,0028,0032,0023,0022,0019,0036,0016,0042,0016,0027,0025,0021,0012,0038,0020,003,001,005,001,003,003,001,001,005,003,002,002,002,002,001,003,001,002,005,003,004,003,001,002,001,003,003,00</t>
         </is>
       </c>
     </row>
@@ -1485,11 +1485,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31276</v>
+        <v>47</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>113,00</t>
+          <t>113,00124,00143,00118,00149,00165,00143,00267,00133,00132,00297,00340,00203,00297,00304,00177,00131,00179,00178,00192,00123,00147,00157,00193,00236,00123,00259,00163,00317,00438,00737,00851,00715,00319,00884,00895,00800,00793,00826,00821,00817,00356,00793,00830,00851,00300,00746,00834,00801,00753,00312,00254,00258,00233,00836,00150,00205,00212,00269,00200,00495,00233,00539,00214,00540,00521,00490,00497,00108,00558,00197,00475,00550,00288,00484,00569,00503,00507,00543,00455,00491,00284,00552,00508,00192,00356,00350,0098,00330,00343,00197,00163,00163,00333,00140,00361,00149,00315,00357,00361,00354,00366,00322,00222,00318,00305,00382,00202,00339,00340,00180,00427,00216,00110,00170,0098,00194,00191,00198,00210,00158,00104,00148,00185,00164,0080,0085,00169,00174,00192,00218,0099,0073,00195,00182,0086,0083,00108,00219,00213,00189,00387,00366,00221,00341,00314,00369,00335,00240,00237,00386,00152,00309,00287,00169,00327,00352,00247,00310,00358,00380,00310,00206,00358,00374,00152,00158,00340,00161,00119,00121,0067,0049,00146,00145,00134,00123,00149,00138,0094,00100,0057,00119,00103,0062,00141,00110,00120,0065,0075,00125,00154,0094,0092,00146,00145,003,001,001,001,006,002,005,001,002,0011,002,003,008,007,0010,001,005,001,002,008,003,0011,004,006,0014,005,0020,0040,0055,0036,0043,0052,0045,0052,0063,0065,0065,0024,0071,0033,0075,0068,0032,0023,0063,0087,0043,0060,0046,0070,0048,0058,0056,0054,001,001,001,001,001,001,003634,003730,003527,003816,004133,003440,003544,003403,004870,003555,003966,004602,003612,004053,003645,003922,002435,003386,003596,003647,004178,004056,003933,004534,008263,006464,004177,005885,0013,0026,0017,0016,0021,0023,0022,0018,0025,0015,0015,0021,0040,007,0015,0033,0014,0012,0015,0015,0019,0063,0014,0034,0026,0022,0017,0051,001,002,001,004,004,002,001,005,003,004,003,005,005,003,003,003,001,002,002,003,001,002,001,00164,00155,00127,00196,00153,00152,00138,00230,00237,00171,00120,00140,00216,00173,00145,00224,00334,00143,00206,00167,00262,00121,00121,00148,00141,00245,00360,00216,00670,00679,00234,00681,00175,00626,00248,00725,00617,00619,00652,00642,00646,00265,00609,00579,00601,00268,00641,00252,00221,00262,00558,00244,00290,00611,00528,00625,00545,00513,00206,00521,00585,00549,00202,00390,00531,00594,00566,00370,00552,00547,00538,00553,00335,00462,00526,00216,00205,00416,00543,00433,00478,00236,00357,00196,00244,00146,00207,0099,00283,00265,00189,00140,00153,00244,00281,00308,00131,00254,00347,00264,00128,00293,00293,00238,00248,00255,00310,00105,00195,00288,00299,00259,0097,00157,0084,00100,0093,00143,0088,00138,00146,00168,00123,00118,00123,0086,00142,00139,00110,00104,0076,00123,00161,0078,0069,0080,00136,00104,00143,00153,00334,00223,00292,00256,00364,00232,00455,00507,00429,00373,00291,00507,00479,00462,00252,00460,00241,00235,00368,00432,00361,00357,00382,00424,00364,00441,00475,00397,00120,00138,0092,00149,00152,00142,0053,00116,00140,00122,0063,00136,0063,0071,00135,00107,00156,00106,0092,0070,0038,0071,00100,0065,0079,0094,00142,00136,001,005,004,005,007,005,008,006,004,004,003,002,004,007,005,004,006,006,006,004,004,005,001,004,002,002,004,00115,00148,00170,00154,0089,0096,00138,00147,00141,00100,00161,00177,00156,0078,00146,00153,00160,00131,00171,00103,00152,00155,0086,00175,0085,00112,0093,0094,001,002,001,001,001,002,005528,003748,004897,003357,003258,003804,003689,003524,003190,006571,003458,003600,003574,003495,004164,005529,003448,004379,003570,003184,003921,003373,004296,005621,004307,004122,003263,003714,0019,0017,0021,0028,0036,0024,0048,0027,0019,0025,0067,009,0016,0018,0021,0036,0017,0017,0026,0030,0021,0027,0023,0012,0022,0040,0021,0021,003,003,002,003,001,001,002,001,001,003,004,001,004,001,001,005,003,001,003,001,001,002,002,003,001,003,001,00</t>
         </is>
       </c>
     </row>
@@ -1503,11 +1503,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41441</v>
+        <v>57</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>143,00</t>
+          <t>143,00172,00194,00274,00146,00249,00349,00185,00147,00293,00135,00166,00132,00126,00160,00135,00151,00146,00199,00145,00277,00152,00231,00171,00161,00125,00127,00193,00317,00178,00178,00854,00870,00332,00253,00881,00902,00833,00832,00828,00811,00783,00855,00861,00938,00846,00789,00241,00760,00356,00346,00816,00786,00826,00244,00340,00251,00839,00777,00816,00839,00790,00565,00529,00501,00526,00524,00235,00519,00207,00544,00554,00511,00569,00201,00562,00502,00500,00542,00538,00229,00471,00235,00499,00509,00508,00521,00509,00218,00246,00232,00525,00498,00348,00348,00392,00363,00364,00381,00369,00161,00214,00377,00373,00357,00323,00366,00188,00356,00314,00126,00350,00342,00384,00108,00172,00329,00373,00341,00344,00132,00319,00350,00139,00183,00219,00219,00151,0097,00210,0071,00203,00213,00164,00201,00231,00102,00211,0098,00157,00270,0086,00206,00230,00215,0099,00182,00152,00191,0096,00165,00183,00181,00197,0093,00252,00170,00388,00393,00358,00397,00405,00393,00383,00350,00443,00411,00339,00172,00440,00451,00208,00288,00357,00338,00231,00168,00358,00155,00319,00384,00356,00205,00342,00398,00389,0080,00101,0064,00132,00136,00141,0062,00153,00102,00121,0050,00121,00158,0072,0096,00130,00144,0058,0096,00125,0057,00119,00149,00129,00123,0069,00129,00145,00132,00123,00142,006,006,002,008,002,004,005,002,004,001,003,004,003,004,003,004,005,003,002,004,001,0012,005,002,003,004,003,003,001,004,003,0066,0087,0064,0055,0061,0043,0051,0051,0044,0030,0063,0070,0032,0068,0032,0039,0049,0046,0072,0035,0040,0028,0057,0045,0064,0054,0056,0050,0044,0072,0043,002,004834,004721,003539,003250,003764,004126,003530,004405,003734,003966,003441,003734,004655,003511,004855,004768,004524,003414,003585,003905,003364,003238,004764,004222,003305,003286,004451,003417,003697,003570,004947,0029,0024,0015,0037,0021,0018,0017,0025,0033,0034,0025,0014,0024,0022,0020,0020,0024,0024,0025,0025,0020,0014,0029,0037,0011,0019,0029,0024,0042,0022,0025,002,003,005,003,001,006,002,003,001,002,001,003,002,003,002,001,001,004,001,003,005,001,004,003,002,001,005,00151,00238,00137,00183,00286,00177,00160,00158,00151,00149,00192,00172,00149,00140,00122,00184,00359,00142,00171,00124,00133,00148,00142,00136,00140,00199,00174,00221,00306,00353,00194,00777,00630,00689,00625,00624,00683,00722,00705,00678,00631,00666,00653,00262,00597,00287,00285,00581,00611,00704,00276,00586,00640,00668,00260,00257,00578,00259,00296,00676,00556,00643,00211,00471,00553,00569,00544,00536,00347,00567,00546,00581,00570,00416,00566,00524,00571,00216,00217,00546,00578,00576,00563,00537,00462,00381,00461,00569,00576,00212,00359,00387,00473,00352,00348,00349,00136,00227,00288,00239,00311,00250,00282,00336,00358,00108,00183,00274,00319,00257,00222,00215,00279,00143,00328,00152,00268,00301,00237,00347,00285,00247,00218,00211,00155,00134,00149,00178,00131,00160,00168,00139,00111,00120,00182,00130,00113,00173,0087,00144,0092,00135,00152,00128,00124,0089,00152,00136,00161,0088,00119,00135,00155,0076,0094,00254,00452,00354,00359,00377,00355,00414,00390,00257,00389,00479,00321,00281,00415,00492,00249,00486,00475,00459,00487,00490,00449,00357,00403,00496,00407,00348,00505,00330,00452,00308,0080,0093,0077,00157,00125,00143,00115,00143,0067,0081,0066,00143,00124,0096,00145,00125,0088,00137,0094,00120,00108,0071,00112,00102,00110,0069,0061,00119,00134,00142,00136,002,008,007,007,004,009,001,005,004,006,003,002,003,007,004,002,003,006,004,001,002,005,008,009,004,003,003,00132,00111,00188,00129,00143,00202,00226,00149,00227,00195,00109,00130,00163,00193,00107,00122,00186,00190,00165,00115,00190,00108,00138,00129,00138,00136,00136,00173,00204,00132,00150,001,001,002,001,001,003437,003152,003404,004365,003268,003182,003576,003138,003326,003225,003517,003281,004057,005882,003519,005636,004237,005533,003141,004472,003772,005621,003886,003512,003350,004301,004185,003516,003361,003396,003790,0027,0017,0020,0021,0033,0016,0020,0022,0019,0017,0044,0025,0022,0016,0019,0020,0041,0014,0020,0027,0017,0028,0020,0031,0032,0024,0018,0032,0043,0015,0016,002,004,002,001,003,002,003,005,002,004,001,002,006,001,004,002,003,007,001,004,004,007,001,003,003,005,00</t>
         </is>
       </c>
     </row>
@@ -1521,11 +1521,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48861</v>
+        <v>69</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>234,00</t>
+          <t>234,00225,00178,00149,00247,00158,00176,00210,00169,00158,00235,00148,00146,00140,00196,00314,00159,00194,00186,00302,00183,00143,00201,00221,00140,00171,00145,00268,00198,00219,00781,00835,00264,00898,00813,00154,00838,00868,00851,00269,00850,00854,00200,00324,00242,00827,00244,00327,00247,00823,00820,00815,00310,00316,00802,00905,00151,00805,00979,00769,00213,00113,00208,00571,00206,00235,00251,00522,00178,00554,00504,00580,00533,00491,00545,00513,00484,00549,00567,00170,00229,00496,00556,00231,00586,00518,00195,00227,00548,00466,00382,00142,00112,00337,00141,00186,00167,00185,00402,00331,00198,00132,00373,00346,00312,00131,00344,00349,00331,0093,00341,00409,00398,00170,00346,00331,00371,00435,00323,00165,0078,00205,00213,00216,00164,00191,00176,0076,00188,00229,0087,00227,00106,00101,00172,0076,00185,00100,00106,0097,00247,00123,00220,0075,0093,00242,00164,00165,00249,00148,00338,00303,00178,00249,00373,00139,00356,00143,00150,00329,00198,00349,00459,00342,00408,00244,00169,00416,00171,00419,00138,00431,00385,00362,00167,00364,00393,00419,00404,00391,00156,0065,0074,00155,00104,00129,0083,00116,0069,00152,00108,00159,0070,00142,00131,0083,00129,0061,00149,00123,0075,0090,00124,00162,0090,00115,00141,00122,0059,00149,001,002,001,002,004,004,002,001,007,001,003,003,001,006,004,004,006,007,005,005,004,003,003,006,0011,001,004,0022,0064,0051,0044,0039,0049,0045,0051,0015,0040,0049,0052,0029,0038,0026,0035,0047,0025,0046,0035,0053,0039,0073,0052,0025,0037,0033,0038,0030,0036,003,001,001,002,004028,003663,003411,003345,003862,003628,004753,004254,003232,008420,004899,003467,003507,004174,003949,003538,003497,003725,003983,003813,003647,003972,004516,003688,005790,006431,004398,005622,006273,005885,0021,0012,0017,0021,0021,0015,0035,0018,0018,0031,0025,0031,0014,0025,0061,0019,0024,0035,0079,0018,0011,0031,0028,0011,0019,0024,0023,0052,0036,0027,003,002,003,002,005,002,002,002,002,009,002,006,002,002,005,002,003,005,002,001,003,002,002,009,002,00202,00186,00179,00342,00181,00209,00183,00184,00132,00189,00183,00246,00249,00129,00179,00314,00144,00307,00194,00137,00153,00183,00167,00144,00190,00157,00144,00166,00143,00138,00250,00649,00584,00255,00718,00575,00638,00125,00663,00263,00290,00645,00657,00595,00237,00727,00679,00175,00653,00277,00278,00607,00263,00615,00262,00688,00210,00613,00725,00702,00367,00548,00580,00188,00637,00489,00540,00138,00450,00560,00599,00548,00206,00150,00585,00531,00369,00203,00314,00577,00393,00577,00560,00364,00369,00612,00184,00189,00465,00579,00233,00287,00291,00347,00121,0080,00174,00128,00275,00311,00171,00112,00308,00313,00263,00332,00260,00217,00338,00272,00303,00329,0068,00275,00257,00223,00181,0093,00240,00354,00181,00144,00136,00125,0069,00145,00164,00118,00152,00195,00161,00101,00112,00106,00173,0073,00163,0096,0090,0091,0074,00115,00150,00136,00123,0082,0065,00174,0063,00184,00428,00221,00194,00443,00182,00373,00363,00283,00285,00460,00370,00395,00354,00309,00385,00339,00326,00500,00265,00247,00403,00372,00504,00351,00355,00455,00462,00482,00205,00486,0065,00138,0077,00148,0096,00138,00132,0058,00155,00140,0092,0045,00153,00158,0082,00131,00126,00171,00114,00105,00120,0066,0059,00162,0057,0077,00156,00138,0091,0076,006,006,007,002,002,002,003,006,001,005,002,003,007,0014,001,002,003,0012,003,004,005,006,001,006,006,007,005,004,00183,00136,00198,00109,0087,00224,00106,00137,00180,00236,00158,00219,00201,00242,00122,00159,00191,00118,00151,00192,00227,00160,00135,00121,00114,00185,00184,00129,0089,00203,001,002,002,001,001,001,003742,003947,003675,003397,004775,003447,004690,003203,008373,003552,003443,003359,004314,003881,003304,0011298,003964,003510,003418,004399,003258,004932,003689,004106,002836,004519,004915,003509,003252,003267,0081,0075,0021,0032,0020,0059,0023,0026,0028,0017,0030,0025,0019,0023,0024,0032,0036,0021,0011,0018,0042,0047,0024,0022,0016,0013,0027,0027,0021,0023,002,001,006,005,002,003,0015,003,004,001,002,002,003,006,004,004,002,001,001,003,003,002,003,003,003,002,004,00</t>
         </is>
       </c>
     </row>
@@ -1539,11 +1539,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34644</v>
+        <v>47</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>139,00</t>
+          <t>139,00137,00266,00154,00191,00126,00125,00145,00205,00191,00169,00165,00140,00293,00146,00180,00170,00222,00203,00155,00139,00145,00270,00264,00280,00153,00212,00156,00344,00177,00203,00757,00830,00312,00853,00859,00876,00853,00855,00854,00813,00858,00837,00856,00251,00396,00905,00852,00207,00353,00860,00922,00825,00893,00822,00838,00257,00870,00338,00311,00868,00260,00553,00630,00481,00567,00543,00575,00556,00549,00559,00555,00532,00597,00482,00489,00482,00216,00237,00207,00504,00291,00247,00512,00643,00523,00230,00228,00586,00488,00613,00241,00226,00341,00366,00382,00374,00176,00369,00371,00335,00407,00183,00361,00404,00359,00336,00137,00389,00344,00383,00368,00123,00400,00391,00334,00181,00388,00159,00208,00343,00192,00398,00161,00201,00166,00201,00207,00206,00202,00202,00212,00208,0086,00184,00197,00217,00220,00101,00189,00158,00159,0094,00181,0092,0077,00107,00121,0074,00155,00204,0083,00160,00224,00220,00240,00411,00219,00144,00420,00390,00348,00390,00361,00346,00292,00352,00324,00192,00355,00368,00360,00314,00345,00170,00171,00288,00222,00317,00343,00332,00388,00309,00242,00226,00380,00150,00103,0076,00122,00107,00164,0065,00132,00121,00152,00134,0096,0077,00159,00137,00136,0056,0054,00124,00166,00117,0059,00156,00146,00130,0083,00134,00130,0059,00140,00119,003,004,004,004,002,002,004,003,003,002,002,002,004,001,002,003,005,002,002,003,001,001,002,001,001,002,001,007,001,003,0061,0045,0053,0057,0064,0045,0030,0047,0022,0047,0040,0053,0048,0025,0051,0058,0046,0028,0033,0035,0055,0034,0042,0031,0052,0056,0040,0029,0028,0055,0047,001,001,001,001,005486,004330,004882,003462,004071,003937,005444,003660,004800,004285,004071,003704,003442,004458,004259,004369,003446,003698,003349,003707,003352,003668,003495,003684,003568,003671,004796,003380,003464,004300,003471,0025,0020,0015,0017,0019,0017,0021,0020,0040,0018,0017,0013,0020,0021,0016,0026,0023,0030,0032,0041,0015,0019,0021,0021,0023,0020,0024,0032,0015,0030,0022,003,004,009,001,004,001,002,003,002,003,001,002,002,005,004,003,001,002,002,002,001,001,003,003,002,003,00132,00121,00205,00144,00137,00196,00146,00330,00160,00155,00139,00304,00164,00148,00161,00162,00248,00146,00136,00150,00168,00161,00219,00231,00416,00203,00322,00179,00140,00151,00185,00586,00608,00720,00608,00267,00685,00629,00547,00590,00645,00597,00276,00268,00630,00641,00556,00275,00716,00687,00288,00663,00511,00320,00593,00669,00264,00609,00696,00257,00236,00676,00462,00579,00620,00573,00628,00604,00605,00560,00483,00613,00580,00540,00357,00189,00662,00389,00455,00651,00557,00200,00629,00186,00374,00513,00369,00617,00419,00656,00229,00636,00612,00128,00260,00264,00232,00212,00351,00317,00305,00104,00133,00181,00196,00279,00328,00158,00244,00299,00187,00293,00247,00288,00268,00337,00311,00261,00270,00351,00308,00187,00284,00193,00159,0084,00156,00182,00116,0087,00148,00129,0091,00158,00121,00179,00146,00125,00149,00143,00144,00100,00128,00158,00151,00140,0092,00136,0084,0088,00135,0090,00135,00173,00112,00332,00377,00465,00370,00470,00494,00434,00474,00377,00402,00499,00433,00397,00440,00390,00381,00259,00323,00276,00237,00382,00349,00383,00327,00474,00430,00450,00406,00423,00516,00251,0089,0077,0064,00132,0075,0076,00151,0075,00153,00133,0074,00160,00137,0099,00111,00133,00141,0076,0087,00123,0092,00146,0084,00124,00145,00126,0070,00146,00124,00108,0086,004,003,002,004,004,003,003,004,004,004,002,004,003,001,002,001,002,005,001,003,003,008,002,007,004,005,009,002,002,005,004,00189,00136,00179,00162,00195,00201,00185,00176,00201,00178,00143,00167,00158,00105,00145,00166,00113,00107,00135,00103,00188,00171,00126,00100,0091,00163,00116,00121,00188,00154,00187,001,001,002,001,001,001,001,001,004416,003219,004741,003872,004212,004167,003387,003651,003398,003398,003181,003665,003092,003500,005502,003309,003232,003336,007566,003517,007252,003859,003439,003446,003620,005523,003490,003499,003851,004893,004134,0022,0019,0024,0028,0019,0017,0020,0021,0048,0054,0018,0029,0031,0064,0014,0020,0027,0035,00163,0084,0019,0047,0037,0023,0035,0064,0045,0049,0029,0049,0018,002,002,003,005,004,0019,001,002,007,0010,007,004,004,002,002,001,003,008,003,003,004,002,002,008,003,002,006,002,00</t>
         </is>
       </c>
     </row>
@@ -1557,11 +1557,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34761</v>
+        <v>49</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>148,00</t>
+          <t>148,00161,00262,00229,00181,00144,00221,00200,00131,00282,00244,00187,00192,00162,00164,00171,00226,00154,00160,00141,00137,00135,00178,00170,00144,00132,00165,00299,00178,00187,00845,00244,00825,00838,00811,00846,00877,00871,00838,00839,00823,00833,00815,00872,00774,00375,00899,00782,00232,00855,00262,00813,00714,00332,00863,00816,00237,00309,00307,00303,00569,00201,00526,00221,00421,00210,00542,00231,00510,00555,00596,00242,00568,00529,00530,00531,00224,00518,00494,00522,00203,00534,00561,00563,00211,00534,00489,00537,00349,00555,00360,00214,00218,00381,00179,00349,00371,00332,00360,00146,00179,00123,00349,00329,00196,00386,00303,00389,00259,00322,00189,00386,00355,00130,00372,00357,00362,00339,00355,00375,00194,00219,00115,00191,00100,00204,00158,00197,0073,00202,00234,00161,0071,00117,00155,00179,00189,00109,00160,00221,00208,0080,00159,0098,00198,00230,00202,0086,00183,0081,00249,00232,00177,00353,00200,00163,00333,00363,00228,00349,00320,00311,00335,00379,00386,00288,00257,00373,00344,00344,00384,00199,00402,00353,00358,00163,00259,00291,00312,00326,0077,00148,00108,0078,00125,00145,00168,00120,00135,00144,00139,00115,00172,0077,0067,00163,0076,0078,00167,00121,00113,00129,0075,0058,00147,0067,00178,00155,00123,00152,001,001,0012,002,003,003,002,002,001,003,004,001,003,004,006,003,001,004,002,003,002,001,001,004,005,001,0051,0049,0041,0028,0040,0058,0049,0026,0058,0020,0035,0023,0035,0039,0048,0043,0039,0045,0025,0029,0032,0034,0051,0042,0047,0048,0043,0031,0054,0048,002,001,001,003991,005128,003794,003668,004585,004361,003541,003443,003759,004641,003307,003476,003496,006344,003669,003570,003720,005547,004005,004036,004255,004022,003544,004190,004507,003787,005168,005028,003354,004809,0024,0021,0016,0013,0020,0015,0015,0019,0029,0023,0020,0016,0023,0041,0056,0030,0020,0023,0023,0024,0022,0024,0039,0021,0021,0029,0044,0030,0035,0023,005,003,002,003,002,002,003,001,004,003,001,001,002,004,001,006,006,002,004,001,002,002,005,003,001,003,003,002,001,00171,00145,00161,00258,00200,00159,00199,00158,00203,00294,00130,00160,00208,00302,00148,00148,00182,00135,00171,00171,00170,00132,00184,00160,00158,00151,00164,00149,00152,00280,00300,00656,00255,00264,00700,00654,00606,00639,00597,00229,00610,00703,00606,00342,00629,00634,00651,00662,00487,00266,00245,00264,00599,00577,00634,00255,00576,00598,00580,00690,00183,00559,00606,00569,00210,00602,00449,00469,00390,00600,00499,00678,00568,00612,00589,00219,00341,00596,00458,00390,00419,00375,00226,00508,00611,00554,00607,00444,00559,00564,00263,00202,00215,00228,0093,00291,00162,00330,00272,00289,00309,00132,00270,00297,00174,00282,00144,00240,00356,00212,00345,00346,00207,00322,00294,00243,00271,00278,00331,00277,0083,00104,00136,0081,0085,0082,00137,00106,00165,00146,00143,00165,00109,00125,00163,00119,00132,00104,00141,00165,00154,0099,00124,00140,00118,00152,00120,00150,00138,0091,00303,00416,00445,00521,00352,00394,00481,00432,00357,00269,00511,00397,00283,00254,00366,00431,00373,00285,00413,00508,00422,00460,00423,00426,00497,00271,00234,00463,00282,00393,00129,00158,00159,00155,0099,00145,00120,00174,00155,0087,0072,00131,00114,00128,00100,00132,00144,0067,0086,00164,0074,0075,0073,0078,0079,0077,0095,00139,00123,00148,001,002,005,003,003,002,007,006,004,002,002,003,003,004,005,002,003,002,002,008,005,002,003,006,003,004,002,002,00135,00183,00180,0097,00113,00203,00159,00149,00204,00196,00165,00226,00127,00137,00200,00200,00183,00137,00129,00223,00197,00148,00195,00203,00217,00215,00100,00167,00167,00143,001,001,003482,003522,003735,003346,003214,005703,004195,003485,004989,003516,003561,003512,009506,004018,003455,003639,004018,004387,005080,004319,003628,004522,003547,003260,003240,003598,004095,003987,003412,003942,0029,0023,0020,0015,0040,0015,0013,0026,0084,0035,0025,0036,0029,0037,0021,0035,0026,0017,0025,0020,0021,0017,0022,0017,0031,0024,0018,0037,0024,0030,002,002,002,004,004,004,007,003,004,006,001,001,007,004,005,002,002,001,001,003,001,002,001,002,005,001,003,004,001,00</t>
         </is>
       </c>
     </row>
@@ -1575,11 +1575,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34588</v>
+        <v>47</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>296,00</t>
+          <t>296,00154,00319,00153,00138,00276,00321,00233,00171,00159,00292,00260,00141,00160,00231,00175,00140,00300,00155,00131,00146,00166,00141,00135,00196,00226,00164,00125,00249,00134,00130,00847,00828,00854,00264,00316,00831,00336,00271,00890,00844,00349,00854,00862,00818,00822,00855,00819,00263,00833,00815,00851,00245,00249,00332,00895,00785,00823,00846,00849,00344,00883,00535,00586,00583,00504,00232,00559,00531,00511,00524,00535,00575,00593,00558,00572,00536,00542,00242,00231,00225,00552,00525,00254,00237,00222,00221,00540,00521,00237,00594,00535,00224,00372,00334,00352,00353,00363,00383,00399,00382,00409,00381,00133,00415,00337,00359,00129,00397,00224,00252,00344,00366,00359,00192,00320,00331,00333,00239,00161,00133,00388,00166,00146,00195,00206,0083,0086,00173,00196,00107,00194,00192,0074,00123,00178,00210,00100,00188,00181,00171,0095,00230,00186,0073,00171,00196,00214,0086,00171,0084,00190,00154,00165,00181,00372,00350,00378,00190,00370,00356,00195,00191,00322,00202,00364,00187,00347,00386,00405,00291,00366,00223,00369,00361,00159,00401,00335,00365,00180,00240,00323,00330,00350,00226,00374,00131,0071,0056,00186,0087,00125,0064,0091,0069,0064,00141,00157,0084,00116,00141,00152,00138,00119,00163,00145,00145,00172,00137,00161,0079,0069,00142,00141,00147,00118,00135,006,002,006,005,003,004,004,003,001,003,003,003,002,002,002,001,002,002,003,001,002,002,004,002,001,003,004,002,003,0040,0043,0035,0043,0043,0045,0044,0053,0045,0024,0022,0014,0055,0050,0035,0057,0034,0076,0044,0067,0057,0054,0026,0044,0061,0047,0031,0061,0051,0046,0025,002,001,001,003,001,005039,005190,005915,003714,003929,004032,005958,003829,004544,004255,004166,004097,004919,004060,004165,005416,006049,005378,004440,005746,004188,005174,003569,004395,004300,005182,003504,004182,004584,005818,003875,0030,0026,0023,0020,0034,0031,0020,0028,0035,0034,0037,0024,0021,0025,0041,0024,0032,0039,0020,0038,0019,0024,0039,0018,0022,0020,0019,0028,0024,0024,0022,002,002,001,002,003,001,003,002,005,001,005,003,003,001,002,003,005,002,001,005,002,004,001,002,001,001,002,005,002,003,00141,00177,00143,00152,00133,00225,00337,00162,00166,00290,00458,00164,00140,00140,00152,00124,00210,00126,00151,00144,00165,00135,00408,00193,00341,00150,00140,00196,00137,00242,00164,00650,00572,00669,00696,00604,00279,00593,00640,00580,00262,00660,00272,00685,00651,00264,00650,00619,00670,00256,00243,00617,00266,00591,00709,00665,00657,00300,00279,00269,00687,00616,00201,00546,00566,00360,00193,00594,00548,00585,00203,00488,00612,00617,00534,00371,00606,00395,00599,00610,00476,00390,00603,00617,00200,00481,00552,00211,00554,00590,00361,00564,00578,00321,00335,00242,00326,00306,00274,00269,00156,00306,00296,00248,00357,00446,00206,00358,00107,00319,00273,00295,00152,00220,00389,00208,00302,00274,00279,00255,00265,00181,00131,00241,00142,00128,00104,00106,00165,00155,00141,00135,00142,0090,0087,00116,00156,00153,00169,00135,00102,00156,00127,00138,0093,00162,00102,0069,0098,00104,0078,00150,0085,0082,00131,00483,00476,00251,00407,00467,00413,00395,00481,00454,00503,00444,00292,00424,00516,00317,00337,00372,00409,00423,00320,00355,00262,00506,00240,00429,00426,00484,00248,00328,00449,00358,00156,00163,00146,0067,00107,00124,00162,0076,0080,0081,0057,0099,0092,00123,00127,00131,00103,00149,0079,00119,00128,00150,00125,00148,00119,0085,00101,00155,0084,00144,0049,002,001,001,004,005,001,004,003,004,002,005,006,003,0010,003,001,004,004,005,001,002,005,001,007,001,00193,00114,00211,00201,00179,00135,00198,00173,00192,00129,00135,00191,00131,00213,0088,00195,00135,00117,00109,00103,00186,00141,00130,0068,00115,00177,00163,00115,00165,00173,00172,001,001,001,001,001,006140,004035,004014,004020,004064,005916,004608,004654,005034,005065,004481,003937,003402,004504,004084,008061,003764,007283,003740,003617,003798,006392,004691,003593,003463,005175,004668,004342,003875,004215,004752,0029,0019,0027,0024,0024,0020,0016,0036,0015,0028,0025,0029,0031,0029,0022,0038,0028,0016,0024,0041,0036,0036,0031,0040,0045,0047,0029,0021,0014,0025,0016,002,002,004,002,006,002,003,002,004,001,002,001,003,004,002,003,003,001,002,001,001,002,003,004,005,004,003,005,002,00</t>
         </is>
       </c>
     </row>
@@ -1593,11 +1593,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30095</v>
+        <v>41</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>141,00</t>
+          <t>141,00150,00271,00349,00172,00136,00176,00146,00157,00168,00118,00214,00158,00167,00137,00167,00351,00347,00204,00188,00311,00220,00137,00133,00256,00141,00148,00168,00208,00143,00159,00906,00844,00848,00875,00918,00831,00814,00943,00874,00818,00869,00833,00230,00876,00235,00910,00832,00834,00222,00841,00803,00352,00805,00330,00828,00841,00786,00357,00343,00221,00810,00527,00215,00201,00549,00181,00253,00244,00581,00207,00554,00535,00544,00566,00542,00552,00543,00198,00552,00597,00540,00581,00250,00564,00521,00524,00553,00515,00519,00522,00537,00530,00369,00379,00433,00373,00172,00449,00428,00217,00400,00190,00406,00420,00216,00216,00123,00414,00150,00428,00371,00145,00414,00442,00351,00373,00415,00417,00387,00396,00384,00361,00424,0090,00218,0083,00161,00182,00207,0098,00224,00109,00205,00178,00202,00224,00104,00222,00219,00197,00113,00152,00232,00205,00101,00184,00224,00197,00221,00192,00213,00214,0091,00217,00351,00310,00393,00332,00402,00396,00192,00351,00334,00341,00357,00338,00228,00339,00167,00307,00306,00407,00343,00169,00178,00403,00374,00236,00381,00230,00387,00396,00158,00416,00365,00147,00137,00122,00155,00129,00176,00162,0082,0083,00161,00172,00132,0076,0097,00170,00193,0066,00151,00176,00151,0081,00190,00114,00180,00193,00188,0085,0070,00146,00152,00158,003,006,002,007,009,002,001,002,002,003,004,002,002,002,004,004,004,002,005,003,002,003,002,002,003,002,001,0065,0066,0021,0054,0063,0071,0029,0055,0064,0033,0046,0055,0059,0047,0063,0054,0028,0069,0044,0044,0068,0040,0059,0065,0023,0049,0040,0035,0096,0011,0047,002,001,001,001,003668,004838,003346,004281,003678,004813,004077,003526,003578,004930,003582,003519,003807,006296,003673,003614,006491,004155,004939,003775,004666,003574,003514,004912,004027,003589,004890,003943,004093,004074,003291,0029,0040,0033,0022,0034,0024,0025,0019,0021,0018,0022,0040,0026,0044,0023,0020,0032,0023,0031,0020,0012,0028,0047,0022,0023,0022,0026,0026,0020,0020,0022,002,002,003,007,004,004,003,003,002,002,002,002,001,005,003,002,003,003,001,003,003,004,003,001,002,001,004,002,002,00142,00143,00113,00147,00335,00197,00213,00226,00222,00166,00141,00131,00142,00154,00191,00174,00151,00203,00121,00136,00158,00226,00288,00162,00162,00349,00273,00352,00165,00132,00145,00291,00630,00257,00721,00549,00674,00295,00570,00681,00275,00659,00550,00731,00687,00677,00705,00742,00666,00254,00553,00258,00669,00709,00710,00672,00691,00657,00258,00658,00267,00615,00621,00189,00363,00373,00573,00602,00608,00600,00234,00480,00639,00358,00533,00615,00596,00505,00206,00423,00591,00608,00618,00633,00495,00485,00593,00484,00579,00474,00226,00619,00614,00287,00306,00217,00360,00250,00242,00289,00165,00165,00153,00297,00356,00346,00349,00341,00352,00380,00323,00363,00376,00342,00362,00341,00373,00280,00282,00239,00132,00189,00361,00278,0087,00142,00138,00146,00138,00146,00165,0085,00144,0085,00124,00115,0086,0092,00153,00146,00106,00148,00133,00137,0098,0094,00127,00133,0081,00140,00107,00100,00164,00122,0085,00469,00273,00489,00401,00400,00371,00496,00501,00534,00444,00476,00533,00550,00469,00515,00439,00431,00406,00346,00428,00240,00517,00447,00293,00339,00531,00510,00335,00348,00445,00315,00174,00104,00124,00100,00165,00163,00131,00115,00166,00180,00168,00152,0097,00153,00181,00156,00147,00178,0077,00167,0089,00166,0086,00135,00141,00108,0094,00189,00137,0079,00121,002,001,003,003,001,003,004,008,002,002,001,007,003,0011,003,006,006,002,003,004,004,005,001,004,001,001,00146,00175,00106,00180,00155,00187,00186,00127,00164,00156,00164,00172,00189,00129,00195,00197,00251,00130,00157,00196,00106,00124,00166,00188,00217,00148,00196,00188,00222,00123,00188,001,001,001,001,003615,003613,003544,003554,005975,004011,003570,003259,003506,003559,004348,004708,003804,003891,004332,004167,003663,003890,004711,003306,004436,003670,005927,006969,004016,003408,005658,004440,003346,003491,003439,0029,0019,0030,0033,0022,0028,0015,0035,0024,0019,0017,009,0014,0035,0033,0020,0023,0024,0025,0020,0031,0028,0026,0035,0028,0018,0022,0025,0010,0029,0027,003,001,002,001,004,002,001,001,001,001,001,002,001,004,003,001,007,001,002,001,002,004,003,001,003,004,002,001,00</t>
         </is>
       </c>
     </row>
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34790</v>
+        <v>49</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>159,00</t>
+          <t>159,00144,00204,00148,00163,00162,00202,00191,00239,00173,00143,00199,00230,00173,00134,00171,00133,00180,00237,00237,00161,00165,00269,00250,00229,00179,00299,00170,00146,00175,00835,00842,00320,00339,00906,00830,00372,00908,00904,00264,00850,00861,00918,00754,00911,00905,00827,00265,00340,00879,00249,00770,00400,00864,00817,00829,00337,00901,00904,00249,00476,00496,00523,00527,00209,00231,00296,00509,00213,00577,00241,00565,00520,00236,00588,00230,00583,00231,00603,00516,00559,00268,00576,00527,00593,00538,00243,00588,00593,00584,00400,00405,00398,00361,00269,00429,00420,00334,00412,00222,00478,00397,00391,00332,00188,00437,00164,00178,00448,00422,00198,00339,00448,00434,00349,00466,00171,00202,00203,00157,00211,00224,00225,00220,00198,00185,0096,00177,00199,00206,00226,00167,00197,00163,00232,00151,00212,00107,0094,0099,00149,0098,0094,00157,00101,00233,00155,00112,00112,00215,00386,00386,00301,00312,00190,00343,00367,00273,00153,00311,00343,00313,00347,00306,00335,00362,00366,00332,00191,00336,00382,00214,00209,00234,00163,00228,00314,00212,00246,00247,00130,00185,00171,00132,00191,00165,00153,00154,00128,00158,00196,00100,00144,00146,0084,0071,00136,00205,00160,00131,0081,00133,00192,0090,0094,0092,0084,0084,0092,00125,002,002,004,002,002,002,004,003,005,001,005,002,005,001,004,002,003,004,003,004,002,002,001,002,003,0046,0044,0032,0038,0044,0033,0038,0054,0040,0052,0052,0054,0040,0051,0039,0037,0047,0021,0053,0043,0056,0018,0051,0034,0042,0023,0037,0042,0035,0045,001,001,001,001,003,002,004902,004623,005818,003516,003457,004152,003574,003436,003972,003675,003663,005163,004352,003621,005002,004120,005097,003762,004169,003915,004685,003509,005241,006581,004435,003897,003699,004556,004897,004778,0022,0028,0023,0024,0026,0013,0045,0032,0019,0030,0027,0033,0024,0024,0025,0024,0026,0017,0057,0033,0018,0023,0027,0034,0039,0026,0040,0042,0019,0036,003,003,003,004,002,005,001,006,003,004,002,002,005,006,003,002,001,004,002,002,004,002,002,004,003,002,004,001,00203,00193,00135,00269,00280,00197,00165,00172,00324,00163,00284,00177,00233,00171,00160,00160,00143,00124,00132,00210,00168,00141,00131,00169,00197,00167,00161,00173,00197,00227,00701,00603,00720,00664,00677,00543,00597,00665,00658,00306,00274,00676,00604,00646,00255,00735,00303,00268,00690,00619,00661,00682,00380,00643,00755,00301,00266,00263,00660,00268,00593,00448,00597,00629,00549,00580,00199,00378,00598,00623,00615,00584,00400,00497,00599,00213,00348,00495,00603,00229,00173,00566,00211,00429,00448,00467,00377,00396,00597,00593,00160,00336,00330,00152,00328,00334,00243,00369,00257,00315,00333,00291,00308,00279,00331,00242,00393,00298,00213,00266,00241,00317,00303,00134,00403,00278,00242,00126,00342,00130,00138,00147,00140,00146,00126,00139,00174,00140,0066,00149,00143,00141,00139,00115,0074,00105,00145,00105,0085,0093,00129,00120,0084,00119,00118,0095,00166,0085,0084,00118,00416,00546,00476,00474,00421,00456,00559,00414,00341,00502,00440,00243,00303,00557,00463,00410,00545,00217,00366,00244,00311,00381,00572,00243,00459,00403,00266,00428,00402,00531,00207,0086,00145,00175,00181,0073,0085,00179,00160,00172,0076,00150,00144,00176,0072,0088,0077,00166,00152,00105,00104,0092,00145,0068,00164,0095,00145,0096,00153,00164,001,003,001,002,006,001,002,001,002,003,009,002,002,003,002,001,002,001,002,001,002,002,001,00199,0099,00139,00203,00203,0096,00187,00197,00129,00180,00131,00147,00118,0098,00209,00178,00185,00142,00123,00150,00217,00192,00154,00188,00167,00203,00134,0093,0065,00113,001,001,001,001,001,003,002,003415,004218,005385,004116,004560,004418,003313,004159,006026,003571,003527,003794,009965,003330,003847,004890,003917,003340,004161,005728,003747,003660,003600,003422,004084,004293,003729,003984,003417,003656,0022,0032,0020,0014,0022,0012,0023,0018,0023,0019,0024,0033,0026,0021,0023,0080,0034,0033,0031,0027,0028,0031,0021,0032,0029,0020,0020,0034,0019,0030,003,003,001,003,004,004,003,006,003,001,007,004,005,003,004,003,004,002,004,003,002,001,004,003,003,003,003,00</t>
         </is>
       </c>
     </row>
@@ -1629,11 +1629,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36476</v>
+        <v>50</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>211,00</t>
+          <t>211,00240,00164,00129,00138,00141,00166,00113,00275,00181,00170,00104,00189,00139,00208,00143,00228,00274,00166,00293,00218,00121,00111,00215,00137,00145,00203,00180,00166,00160,00131,00246,00882,00903,00903,00306,00892,00842,00885,00371,00810,00818,00807,00888,00845,00367,00907,00846,00248,00247,00855,00322,00313,00252,00885,00869,00846,00898,00773,00834,00246,00868,00228,00535,00556,00533,00557,00598,00563,00565,00227,00529,00543,00233,00459,00543,00270,00524,00547,00216,00493,00205,00224,00514,00585,00549,00254,00217,00544,00546,00251,00538,00566,00211,00391,00407,00461,00333,00153,00437,00385,00345,00221,00424,00375,00440,00402,00210,00190,00136,00335,00418,00362,00234,00422,00388,00167,00388,00382,00262,00177,00392,00408,00402,00205,00203,0074,00196,00223,00102,0088,00225,00199,00191,00104,0089,00172,00127,00132,0098,00191,00232,00221,00166,00180,00233,00220,00164,00212,00203,00208,00228,00112,00103,00108,00277,00400,00224,00309,00240,00329,00298,00179,00367,00318,00382,00183,00232,00390,00386,00163,00226,00426,00353,00400,00358,00170,00376,00343,00230,00278,00281,00308,00363,00186,00377,0088,00179,00175,00175,00100,00180,00165,00181,00174,00167,00178,00187,00132,00163,00156,0078,00158,00128,00201,0095,00112,00135,00102,00103,00131,00176,00151,00203,0092,00174,0086,007,001,007,004,007,001,003,002,004,003,003,001,002,002,001,003,002,002,006,002,002,002,002,005,004,002,007,004,002,0031,0040,0059,0070,0039,0047,0028,0039,0082,0052,0059,0058,0042,0041,0036,0062,0039,0067,0064,0053,0038,0058,0028,0046,0065,0057,0064,0043,0058,0063,0085,001,001,001,001,001,003404,006242,004393,003583,003477,006031,003500,003941,004125,004969,003531,004184,004379,004658,003513,003595,003714,004784,005315,005280,003791,004508,003733,004134,004789,004007,005228,004045,003776,003812,004030,0029,0027,0031,0028,0028,0024,0035,0024,0027,0025,0027,0019,0061,0020,0017,0015,0048,0031,0032,0018,0027,0039,0016,0044,0039,0026,0024,0029,0018,0023,0035,004,003,005,001,001,003,003,001,002,001,005,004,005,001,002,004,002,002,001,004,003,002,004,001,005,001,002,006,005,00261,00140,00206,00144,00183,00308,00162,00168,00140,00141,00171,00205,00174,00150,00161,00283,00145,00230,00211,00153,00179,00155,00114,00132,00200,00123,00136,00325,00107,00123,00117,00290,00634,00651,00291,00777,00686,00712,00658,00366,00718,00292,00664,00720,00688,00281,00680,00653,00732,00288,00552,00715,00617,00260,00259,00700,00712,00639,00257,00274,00597,00715,00209,00641,00588,00357,00446,00388,00600,00572,00604,00654,00575,00605,00567,00608,00573,00199,00421,00348,00579,00531,00426,00375,00570,00497,00184,00586,00430,00628,00353,00594,00188,00273,00234,00133,00250,00385,00364,00286,00234,00375,00331,00145,00282,00323,00323,00269,00309,00264,00332,00274,00261,00285,00337,00356,00260,00191,00292,00340,00278,00161,00212,00140,00122,00148,0067,00138,00152,00134,0089,00134,00149,00124,0086,00145,00147,00158,0085,0087,00110,00111,00110,0091,00120,00106,00138,00102,00112,00101,00110,00121,00148,00173,0084,00263,00378,00497,00513,00228,00350,00540,00546,00267,00320,00526,00414,00408,00402,00490,00363,00548,00519,00386,00341,00574,00483,00344,00329,00457,00434,00411,00501,00389,00301,00468,00195,00124,00185,00117,00158,0088,00146,00179,00166,0082,00190,00137,00154,00171,00176,00191,0070,00125,0090,00163,00102,00110,0075,0073,0085,00136,00100,00168,0071,00110,00136,001,004,004,002,002,001,002,002,003,002,001,001,002,001,003,001,002,001,002,002,001,00113,00128,00143,00140,00187,0089,00145,00109,00222,00121,00152,00144,00186,00271,00212,00173,00166,00229,00208,00111,00221,00176,00216,00245,00151,00177,00250,00220,00158,00165,00163,001,002,001,001,001,001,003483,003466,004677,004605,003277,004321,003732,004101,004507,003683,003306,003781,003856,004210,0010200,003958,003697,004456,005472,003941,003290,003985,003467,004322,003648,005136,005666,003655,003602,003322,005678,0032,0021,0024,0026,0030,0045,0015,0034,0032,0021,0026,0019,0031,0067,0029,0027,0025,0046,0016,0035,0035,0030,0037,0012,0024,0036,0025,0038,0038,0026,0021,002,004,007,002,002,001,008,002,005,002,002,002,002,002,002,004,002,003,002,004,003,003,002,003,001,006,003,004,002,004,00</t>
         </is>
       </c>
     </row>
@@ -1647,11 +1647,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34116</v>
+        <v>48</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>151,00</t>
+          <t>151,00186,00183,00168,00192,00196,00137,00171,00249,00157,00146,00194,00154,00330,00139,00179,00170,00284,00151,00139,00154,00176,00160,00125,00151,00223,00167,00112,00308,00203,00877,00860,00831,00395,00845,00771,00806,00792,00808,00857,00508,00842,00844,00257,00878,00852,00859,00256,00906,00302,00884,00773,00959,00205,00340,00810,00330,00878,00330,00224,00224,00421,00223,00565,00235,00532,00517,00391,00285,00202,00560,00526,00241,00560,00563,00546,00549,00459,00506,00220,00573,00557,00538,00495,00524,00206,00554,00236,00536,00585,00178,00341,00177,00432,00205,00410,00152,00312,00383,00436,00359,00444,00196,00421,00378,00159,00431,00177,00328,00414,00277,00451,00427,00377,00418,00405,00429,00359,00422,00182,00115,00193,00164,0094,00116,00183,0067,00197,00175,00208,00151,00188,0079,00171,00152,00203,00203,00188,00162,0089,00125,00179,00131,00161,00205,00142,00146,00169,0093,0090,00350,00291,00362,00264,00289,00299,00280,00139,00333,00354,00364,00272,00360,00209,00267,00304,00227,00321,00184,00220,00186,00286,00260,00341,00293,00149,00298,00200,00290,00210,00106,00135,0085,00190,00164,00194,0094,0097,00154,00100,00173,0099,00162,00151,00144,00174,00167,00140,00146,00182,0098,00155,00146,00141,0072,00157,00176,00181,0092,00168,001,002,004,003,004,004,003,001,005,003,004,003,002,004,002,004,001,006,006,002,004,008,005,003,002,001,0032,0049,0049,0042,0035,0046,0044,0023,0029,0046,0060,0041,0035,0038,0049,0057,0042,0028,0032,0029,0055,0056,0056,0041,0038,0079,0045,0043,0043,0043,001,001,001,001,001,004,003665,004863,004032,003700,003349,004362,004014,003505,003691,005055,005237,003862,003539,004405,003430,004010,003859,005175,004456,003854,003809,004179,003881,003425,004938,004588,004499,004633,004577,004050,0021,0033,0036,0031,0029,0032,0020,0023,0026,0024,0017,0026,0017,0035,0042,0026,0025,0018,0039,0013,0023,0030,0047,0015,0021,0019,0035,0018,0023,0023,004,001,006,003,004,002,003,008,002,006,001,001,004,002,004,001,002,002,003,002,007,004,003,002,004,001,005,001,003,003,00170,00211,00132,00148,00139,00175,00132,00124,00154,00160,00183,00164,00202,00162,00171,00328,00143,00145,00317,00181,00148,00313,00157,00144,00222,00137,00149,00211,00153,00202,00667,00585,00694,00302,00753,00399,00239,00557,00697,00705,00269,00656,00629,00253,00629,00701,00285,00257,00579,00647,00748,00370,00709,00785,00699,00677,00704,00750,00272,00304,00392,00420,00563,00557,00590,00557,00474,00594,00392,00569,00446,00544,00359,00205,00547,00565,00272,00526,00579,00457,00430,00189,00451,00361,00484,00177,00564,00192,00569,00584,00258,00241,00211,00238,00366,00232,00345,00202,00334,00250,00303,00137,00135,00270,00110,00291,00250,00245,00235,00317,00316,00308,00268,00272,00133,00255,00270,00320,00223,00147,00122,00137,0065,0079,00158,00143,00128,00108,00107,00132,00129,00124,0084,00102,00133,00149,0081,00107,00124,00122,00145,0089,00106,00152,00105,00150,00102,00111,00131,00136,00542,00327,00382,00521,00427,00240,00435,00258,00518,00468,00462,00289,00508,00266,00550,00389,00300,00420,00464,00481,00411,00497,00538,00505,00358,00460,00496,00409,00445,00183,00184,00134,00163,00160,00126,00115,00192,0094,0071,00165,00208,0076,00170,0087,00196,00211,00152,0082,00129,00187,00177,00171,00144,00153,00196,00195,00175,0060,0083,00103,001,001,001,002,001,001,003,002,003,002,001,004,003,002,001,001,001,005,001,004,002,001,001,001,007,002,00224,00189,00197,00160,00186,00122,00146,00161,00168,00193,00192,00195,00208,00171,00176,00138,00241,00116,00106,0070,00132,00100,00188,00140,00108,00193,00161,00103,00131,00182,004,001,002,001,001,002,003682,003847,003671,005855,003873,003475,003766,004443,003599,003424,003521,005451,004554,003841,003536,003307,003283,003700,003918,003596,003889,005223,004183,004397,003578,004102,004003,003735,008297,003810,0020,0024,0023,0027,0023,0030,0033,0032,0018,0021,0016,0028,0022,0015,0046,0016,0029,0021,0037,0025,0031,0040,0018,0031,0019,0030,0041,0034,0020,0025,009,003,003,001,002,002,003,007,005,003,003,002,004,002,002,001,003,003,003,001,002,002,003,002,003,002,004,006,002,002,00</t>
         </is>
       </c>
     </row>
@@ -1665,11 +1665,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>126297</v>
+        <v>70</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>133,00</t>
+          <t>133,00366,0018,00101,00392,00367,00109,0031,0014,0086,0099,00139,00370,00122,0093,0019,0062,00104,00372,0033,0032,0096,00343,00387,0097,00125,0038,00378,00300,00355,0092,00108,00388,00118,0016,00338,0075,00404,00106,00371,0091,00113,0048,0033,0079,0039,00345,00106,0055,00106,005,00405,00112,00107,00371,0056,0022,00285,00113,0092,00381,00325,0089,0083,00267,00272,00311,006,0019,0047,00359,0040,0026,0085,00309,00309,0062,00349,00114,00384,00330,0069,00312,0077,0040,0023,00314,0079,0058,00322,0015,0066,00147,00321,00322,0077,0018,00320,00147,0048,00357,0062,0034,0068,00129,0067,00156,0031,00133,0062,0035,00138,00309,0078,0083,00332,0099,00281,00129,0028,0063,0028,00317,0075,00309,0064,0050,0046,00254,0040,0027,0063,00326,0048,00108,0060,00103,0043,00121,00297,0090,0023,00259,0015,00115,0067,0035,0023,00218,00245,0048,0063,00102,0050,00266,00287,0013,002,00258,0029,00232,0030,0056,00263,00286,0062,00146,00122,0019,00271,0051,0023,0027,009,0029,00322,0071,0059,00222,00299,00140,00233,00257,0056,0027,00287,0060,0031,0030,0024,007,00136,0041,0025,0013,0083,0066,00150,009,0021,0073,0087,00122,0098,0030,0024,0025,00144,0013,0023,0027,0022,00145,00144,0030,0019,007,00111,00128,0018,0071,0021,0027,00145,00137,007,0019,0022,0071,00132,0028,00143,0099,0021,0090,0021,0017,0026,00123,0086,00158,0015,00112,00143,0064,009,002,0047,00136,0014,0020,00229,00213,0023,00220,00250,00205,00163,00137,0044,0075,0053,0042,00197,0038,00117,0044,0035,00165,0059,0055,0058,0024,00236,00112,00187,00250,0042,0058,00223,00230,0055,0038,0030,0019,0029,0051,00193,00209,0025,0028,00102,00174,0054,0027,00207,0067,0048,00221,0064,0057,00188,00187,0022,0013,00131,00196,0029,004,0010,00125,0048,0015,00127,0016,0031,00134,0064,0063,00127,0018,0026,0066,0027,00137,0022,00120,00161,0057,0025,0036,0022,0018,0025,00130,0024,0022,00104,0024,0057,00124,0038,00111,0012,0011,0029,008,0021,002,0074,00113,0037,00130,0022,0025,00151,0026,006,00145,0021,0022,0087,00116,0026,00106,0042,0074,00107,001,002,0018,005,003,001,004,002,002,004,002,001,003,001,001,003,002,003,001,002,002,002,002,003,001,003,003,003,002,001,001,003,005,001,0032,002,0015,004,0027,0023,005,001,0012,0024,005,0021,0022,0025,002,005,0031,004,0020,002,003,002,0016,0036,005,008,0035,002,0026,0028,005,001,008,004,0028,0018,001,003,0014,003,0030,0034,0012,003,0025,006,008,007,004,0029,003,0022,0018,004,0029,003,003,006,004,003,00214,00148,00307,00199,001740,001611,001379,001559,001261,00233,00192,00378,001460,00227,001696,001281,00205,002373,00229,00249,001367,00193,001460,001009,00255,001422,00222,00265,001312,00199,001361,001457,001544,00653,00352,00228,001433,00199,00196,001244,001386,00157,00235,001230,001644,00266,001419,001399,00207,001931,00231,00229,001592,00208,00217,0088,001742,001871,001254,00217,00220,002468,0010,001,0014,005,006,006,0011,008,002,005,001,003,002,001,0012,007,006,006,001,004,0012,0011,001,0015,001,001,009,007,004,001,001,0010,001,003,004,003,002,007,002,002,002,0011,006,002,001,003,001,001,009,002,002,007,002,002,002,001,002,004,001,001,001,001,001,001,001,001,001,001,001,003,002,002,002,00187,00161,00178,00204,00174,00209,00141,00159,00138,00166,00168,00183,00177,00196,00198,00155,00210,00135,00217,00154,00153,00190,00167,00205,00315,00336,00158,00164,00159,00124,00332,00130,00121,00280,00289,00382,00390,0079,00383,00221,00371,00322,00426,00385,00362,00147,00366,0018,00128,00106,00302,00398,00394,00378,0020,0050,00126,00404,00362,00402,00118,00363,00119,00147,00160,00175,0033,00149,00161,0063,0071,00137,00149,0057,00150,00183,0057,00178,0065,00143,0079,0013,0036,00182,00179,00150,00161,008,00155,00146,00120,0064,00118,0078,0041,0089,0041,003,003,0037,00107,0085,0039,0083,0075,0067,0017,0070,0073,0065,0081,0073,0082,0084,0087,0083,0038,0044,0063,0092,0023,0045,0092,0027,0023,0045,0029,0029,0039,0044,0014,0041,0039,0022,0029,003,005,0046,0048,0021,0019,0032,008,0043,0011,0056,0046,0023,0058,0024,0038,0036,0050,0040,0047,0057,0047,0054,0065,0069,0092,0028,0014,0054,0032,0011,0043,0010,0064,0040,0066,0038,0087,0081,0068,0071,0015,0037,0044,0032,0040,0092,00103,0051,0059,0068,0019,0014,0013,0021,0030,0019,006,001,0014,002,003,0012,009,0017,0018,0019,005,0027,0029,009,004,0020,0014,0019,0019,0012,0029,0015,0028,0017,0021,001,001,001,002,001,001,001,001,003,002,003,003,003,005,002,009,006,009,007,006,002,005,007,008,0010,007,006,005,004,006,005,0011,001,001,007,003,006,002,002,001,001,003,001,002871,003214,002832,003025,004319,002135,002662,002300,002313,002233,004073,002829,003457,003308,003394,002313,005221,002429,003030,003831,003063,003512,002436,003369,002992,002586,003456,002414,002369,003849,002889,0021,009,0022,0018,0025,0014,0019,0018,0024,0013,0027,0017,0030,0027,0027,0018,0018,0021,0013,009,0035,0013,0018,0012,0022,0025,005,0015,0014,0023,0021,001,002,001,001,004,002,001,001,002,001,001,003,002,001,003,001,001,004,001,001,003,002,001,002,002,001,0048,00357,00359,0070,0061,0023,0043,0041,0063,00145,00135,00188,0092,0057,00283,0075,0034,0055,0086,0090,0090,00357,0023,00132,0055,009,0045,00207,0062,0097,00134,0075,005,0046,00300,00197,00335,0029,0036,00342,00322,0034,00366,0063,00358,0030,0055,0034,0068,0033,00262,00211,0070,00279,00306,0051,0018,00183,00267,00292,0031,009,00202,00340,0042,0033,0097,00343,0013,0032,00280,0050,0083,00293,0056,0047,0035,008,0070,0025,0027,00176,00179,00314,00276,00328,0037,0023,00137,0046,00303,00178,0075,0063,0062,0045,0011,0071,00370,00246,0074,00111,0029,00332,00215,0025,00179,0011,0038,0037,0031,00253,0032,0051,00216,00338,00208,0034,00351,00102,0045,0010,0043,0038,0012,00128,0066,006,0020,00168,0043,00147,00195,0011,0043,007,00222,00249,00155,0023,00139,006,00144,00167,005,0032,0021,0039,0017,0028,00228,0014,00130,0028,00228,0062,0017,0018,00213,0048,0030,00201,00100,00156,00170,0016,009,0026,00127,0014,0039,00105,00165,00108,00128,0078,0021,005,0028,0055,0025,0012,00218,00212,0041,0035,007,0066,0047,003,009,0016,0011,0095,003,0014,0064,0014,00101,0093,004,0011,0020,0020,00113,0075,0064,008,0070,005,0068,0055,009,0021,0018,007,009,0053,00115,0020,0018,0057,0074,0080,0013,0011,0012,0073,004,0058,0060,0045,0073,0043,006,0012,001,002,0070,0010,0011,0010,0087,002,008,0088,0038,0039,0066,0045,0053,0084,00418,00236,0059,0041,0060,00377,00232,00275,0048,0047,00322,0086,00138,00119,0067,0079,0013,00190,0032,0049,0010,00366,0058,00298,00321,0042,00329,0061,0049,00260,00238,00418,0041,00408,0036,0063,00286,00180,00178,00342,0036,0012,0080,00292,00259,004,00300,0077,00261,0035,0032,00152,00267,0047,0029,00268,00319,0041,005,0019,0019,0052,0025,0066,0021,00143,00135,0030,0017,0010,00128,0011,009,00107,004,0089,0020,005,0021,0025,00185,00145,0053,0012,0023,0015,0094,0058,00122,00145,0016,0014,0015,0010,00149,0014,0029,0075,0093,00179,0077,0012,0019,006,00126,0057,0012,002,00150,00114,00109,0020,0023,009,00125,0056,00135,0019,0081,0011,004,002,002,001,002,001,001,001,001,002,002,004,001,001,001,001,001,0075,00101,0033,0028,0014,0023,00142,00110,00177,003,005,00157,00112,0017,0018,00131,00140,009,0018,0011,0028,00152,00105,0043,00149,0010,0019,0025,0024,00105,0097,00162,0092,00159,00101,0020,00135,0026,00159,0035,00173,00171,0015,004,0030,0027,0035,00172,004,0016,005,0044,00160,0032,00108,0020,00163,0024,0078,0026,0094,0021,00261,00225,001348,00600,001459,00174,00158,001705,00301,00259,002076,001700,001631,001448,00240,00218,00167,00176,001569,001428,00359,001326,00218,001349,00184,00213,001492,002357,001448,001391,00231,00209,00115,00214,001917,001298,00198,00186,001431,00916,00178,001309,001418,00212,001253,001256,00182,00209,001014,00218,00224,001627,001296,00221,00194,00125,001666,001944,00277,00325,001364,001288,006,005,001,001,0011,001,002,006,002,003,003,003,007,006,005,003,001,001,001,007,004,001,003,001,0014,003,006,003,002,0010,001,0013,006,005,007,005,002,007,008,002,001,007,001,008,001,006,001,001,001,001,003,001,001,002,001,001,001,002,001,002,001,002,001,00140,00198,00156,00144,00135,00204,00176,00188,00169,00188,00176,00152,00256,00190,00329,00162,00196,00176,00188,00123,00334,00215,00324,00215,00147,00175,00204,00147,00219,00158,00171,00327,00261,00112,00329,0082,00131,00126,0021,00103,00274,00275,00265,00338,0020,00293,00331,00128,00102,0059,00256,00298,00337,00379,00137,00346,00301,00224,00289,00302,00341,00333,00124,00101,00193,00160,00183,00118,00168,0037,0068,00138,0046,00165,0088,00197,00198,0018,00132,0023,00182,00124,00169,0053,0040,00134,00128,0011,00204,00172,00175,00187,00136,0033,0072,0062,0046,0062,0030,0060,0040,0038,0069,0055,0030,0054,0064,0071,0077,0061,0048,0047,006,0051,007,0026,0022,0021,0054,0014,0071,0061,0076,0039,009,0036,0048,0055,0027,0030,0025,0027,0016,0021,0042,0037,009,0045,0020,0043,006,0042,0016,0030,0027,0010,0019,0027,0029,0040,0024,0034,0033,0035,0047,00107,0014,00109,00108,0047,0063,0081,0099,00105,00130,0032,0077,0012,0070,0084,0067,0081,0027,0089,0070,00109,0099,0095,0052,0056,0097,0070,0079,0090,0063,0080,005,0029,002,0033,0036,0014,0028,0014,0029,005,0032,0014,0024,0025,0027,0017,0030,0031,008,0032,0015,0010,0027,0029,0027,0025,0029,0036,0037,0019,0028,001,001,001,002,001,002,001,0029,0024,0027,0014,0023,0010,0029,0013,0027,002,0036,0044,0029,0034,0021,0032,0029,0024,0016,0032,0021,0021,0029,0041,0032,0016,0016,0024,0025,009,006,001,002,001,001,001,001,001,001,003068,003704,003210,002850,004833,002789,002220,003920,002444,003183,002409,002263,002862,003031,003098,002030,002292,002410,003112,003234,002544,004036,004751,002529,004244,002059,002358,002644,003896,003038,002960,0025,0019,0019,0018,0010,0024,0012,0016,006,0016,0025,008,0018,0025,0021,0019,0027,0015,0024,0031,0018,0024,0030,0015,009,0031,0025,0018,0021,0018,0030,004,003,004,002,002,001,002,001,002,001,004,001,003,001,002,001,002,001,001,002,001,003,002,001,00</t>
         </is>
       </c>
     </row>

--- a/out/img/core/BR_262_training_testing_data.xlsx
+++ b/out/img/core/BR_262_training_testing_data.xlsx
@@ -469,7 +469,7 @@
         <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>370468</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>295484</v>
+        <v>37837</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>320796</v>
+        <v>41237</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>372764</v>
+        <v>41959</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>300916</v>
+        <v>35553</v>
       </c>
     </row>
     <row r="7">
@@ -549,7 +549,7 @@
         <v>53</v>
       </c>
       <c r="D7" t="n">
-        <v>371980</v>
+        <v>38344</v>
       </c>
     </row>
     <row r="8">
@@ -565,7 +565,7 @@
         <v>49</v>
       </c>
       <c r="D8" t="n">
-        <v>428624</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="n">
-        <v>385896</v>
+        <v>41827</v>
       </c>
     </row>
     <row r="10">
@@ -597,7 +597,7 @@
         <v>51</v>
       </c>
       <c r="D10" t="n">
-        <v>384328</v>
+        <v>42682</v>
       </c>
     </row>
     <row r="11">
@@ -613,7 +613,7 @@
         <v>66</v>
       </c>
       <c r="D11" t="n">
-        <v>391580</v>
+        <v>42976</v>
       </c>
     </row>
     <row r="12">
@@ -629,7 +629,7 @@
         <v>68</v>
       </c>
       <c r="D12" t="n">
-        <v>374668</v>
+        <v>40622</v>
       </c>
     </row>
     <row r="13">
@@ -645,7 +645,7 @@
         <v>64</v>
       </c>
       <c r="D13" t="n">
-        <v>440020</v>
+        <v>46961</v>
       </c>
     </row>
     <row r="14">
@@ -661,7 +661,7 @@
         <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>443632</v>
+        <v>43589</v>
       </c>
     </row>
     <row r="15">
@@ -677,7 +677,7 @@
         <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>353696</v>
+        <v>36325</v>
       </c>
     </row>
     <row r="16">
@@ -693,7 +693,7 @@
         <v>68</v>
       </c>
       <c r="D16" t="n">
-        <v>394044</v>
+        <v>42946</v>
       </c>
     </row>
     <row r="17">
@@ -709,7 +709,7 @@
         <v>44</v>
       </c>
       <c r="D17" t="n">
-        <v>384720</v>
+        <v>41084</v>
       </c>
     </row>
     <row r="18">
@@ -725,7 +725,7 @@
         <v>61</v>
       </c>
       <c r="D18" t="n">
-        <v>387352</v>
+        <v>40889</v>
       </c>
     </row>
     <row r="19">
@@ -741,7 +741,7 @@
         <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>394464</v>
+        <v>41440</v>
       </c>
     </row>
     <row r="20">
@@ -757,7 +757,7 @@
         <v>64</v>
       </c>
       <c r="D20" t="n">
-        <v>452284</v>
+        <v>46369</v>
       </c>
     </row>
     <row r="21">
@@ -773,7 +773,7 @@
         <v>57</v>
       </c>
       <c r="D21" t="n">
-        <v>412132</v>
+        <v>43689</v>
       </c>
     </row>
     <row r="22">
@@ -789,7 +789,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="n">
-        <v>399112</v>
+        <v>41268</v>
       </c>
     </row>
     <row r="23">
@@ -805,7 +805,7 @@
         <v>75</v>
       </c>
       <c r="D23" t="n">
-        <v>418796</v>
+        <v>43659</v>
       </c>
     </row>
     <row r="24">
@@ -821,7 +821,7 @@
         <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>401660</v>
+        <v>43198</v>
       </c>
     </row>
     <row r="25">
@@ -837,7 +837,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="n">
-        <v>462504</v>
+        <v>48228</v>
       </c>
     </row>
     <row r="26">
@@ -853,7 +853,7 @@
         <v>63</v>
       </c>
       <c r="D26" t="n">
-        <v>448952</v>
+        <v>43363</v>
       </c>
     </row>
     <row r="27">
@@ -869,7 +869,7 @@
         <v>51</v>
       </c>
       <c r="D27" t="n">
-        <v>377076</v>
+        <v>39855</v>
       </c>
     </row>
     <row r="28">
@@ -885,7 +885,7 @@
         <v>51</v>
       </c>
       <c r="D28" t="n">
-        <v>348180</v>
+        <v>31954</v>
       </c>
     </row>
     <row r="29">
@@ -901,7 +901,7 @@
         <v>48</v>
       </c>
       <c r="D29" t="n">
-        <v>224616</v>
+        <v>24986</v>
       </c>
     </row>
     <row r="30">
@@ -917,7 +917,7 @@
         <v>50</v>
       </c>
       <c r="D30" t="n">
-        <v>311892</v>
+        <v>31734</v>
       </c>
     </row>
     <row r="31">
@@ -933,7 +933,7 @@
         <v>52</v>
       </c>
       <c r="D31" t="n">
-        <v>332864</v>
+        <v>33890</v>
       </c>
     </row>
     <row r="32">
@@ -949,7 +949,7 @@
         <v>52</v>
       </c>
       <c r="D32" t="n">
-        <v>375564</v>
+        <v>36918</v>
       </c>
     </row>
     <row r="33">
@@ -965,7 +965,7 @@
         <v>63</v>
       </c>
       <c r="D33" t="n">
-        <v>396760</v>
+        <v>40151</v>
       </c>
     </row>
     <row r="34">
@@ -981,7 +981,7 @@
         <v>70</v>
       </c>
       <c r="D34" t="n">
-        <v>412440</v>
+        <v>42158</v>
       </c>
     </row>
     <row r="35">
@@ -997,7 +997,7 @@
         <v>64</v>
       </c>
       <c r="D35" t="n">
-        <v>443828</v>
+        <v>45120</v>
       </c>
     </row>
     <row r="36">
@@ -1013,7 +1013,7 @@
         <v>68</v>
       </c>
       <c r="D36" t="n">
-        <v>395500</v>
+        <v>43154</v>
       </c>
     </row>
     <row r="37">
@@ -1029,7 +1029,7 @@
         <v>68</v>
       </c>
       <c r="D37" t="n">
-        <v>461580</v>
+        <v>47257</v>
       </c>
     </row>
     <row r="38">
@@ -1045,7 +1045,7 @@
         <v>59</v>
       </c>
       <c r="D38" t="n">
-        <v>418348</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="39">
@@ -1061,7 +1061,7 @@
         <v>55</v>
       </c>
       <c r="D39" t="n">
-        <v>886418</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="40">
@@ -1077,7 +1077,7 @@
         <v>46</v>
       </c>
       <c r="D40" t="n">
-        <v>1168528</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="41">
@@ -1093,7 +1093,7 @@
         <v>61</v>
       </c>
       <c r="D41" t="n">
-        <v>874692</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="42">
@@ -1109,7 +1109,7 @@
         <v>57</v>
       </c>
       <c r="D42" t="n">
-        <v>974157</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="43">
@@ -1125,7 +1125,7 @@
         <v>43</v>
       </c>
       <c r="D43" t="n">
-        <v>859866</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="44">
@@ -1141,7 +1141,7 @@
         <v>52</v>
       </c>
       <c r="D44" t="n">
-        <v>1011164</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="45">
@@ -1157,7 +1157,7 @@
         <v>54</v>
       </c>
       <c r="D45" t="n">
-        <v>1036152</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="46">
@@ -1173,7 +1173,7 @@
         <v>48</v>
       </c>
       <c r="D46" t="n">
-        <v>1006768</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="47">
@@ -1189,7 +1189,7 @@
         <v>69</v>
       </c>
       <c r="D47" t="n">
-        <v>1037820</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="48">
@@ -1205,7 +1205,7 @@
         <v>58</v>
       </c>
       <c r="D48" t="n">
-        <v>972792</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="49">
@@ -1221,7 +1221,7 @@
         <v>60</v>
       </c>
       <c r="D49" t="n">
-        <v>1135053</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="50">
@@ -1237,7 +1237,7 @@
         <v>61</v>
       </c>
       <c r="D50" t="n">
-        <v>513945</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="51">
@@ -1253,7 +1253,7 @@
         <v>44</v>
       </c>
       <c r="D51" t="n">
-        <v>470307</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="52">
@@ -1269,7 +1269,7 @@
         <v>52</v>
       </c>
       <c r="D52" t="n">
-        <v>323986</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="53">
@@ -1285,7 +1285,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>534712</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="54">
@@ -1301,7 +1301,7 @@
         <v>67</v>
       </c>
       <c r="D54" t="n">
-        <v>526907</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="55">
@@ -1317,7 +1317,7 @@
         <v>50</v>
       </c>
       <c r="D55" t="n">
-        <v>517680</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="56">
@@ -1333,7 +1333,7 @@
         <v>52</v>
       </c>
       <c r="D56" t="n">
-        <v>594000</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="57">
@@ -1349,7 +1349,7 @@
         <v>50</v>
       </c>
       <c r="D57" t="n">
-        <v>559500</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="58">
@@ -1365,7 +1365,7 @@
         <v>62</v>
       </c>
       <c r="D58" t="n">
-        <v>545002</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="59">
@@ -1381,7 +1381,7 @@
         <v>57</v>
       </c>
       <c r="D59" t="n">
-        <v>557960</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="60">
@@ -1397,7 +1397,7 @@
         <v>62</v>
       </c>
       <c r="D60" t="n">
-        <v>516961</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="61">
@@ -1413,7 +1413,7 @@
         <v>50</v>
       </c>
       <c r="D61" t="n">
-        <v>590632</v>
+        <v>1544</v>
       </c>
     </row>
   </sheetData>
@@ -1469,11 +1469,7 @@
       <c r="C2" t="n">
         <v>57</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>133,00119,00132,00149,0080,0087,00106,00131,00150,00145,00133,00129,00120,00160,0091,00127,00121,00119,00296,00175,00127,00103,00150,00145,00118,00101,00305,00176,00105,00159,00117,00731,00278,00812,00622,00752,00756,00727,00281,00825,00690,00755,00801,00318,00861,00192,00200,00290,00816,00811,00684,00694,00855,00239,00662,00754,00744,00139,00726,00340,00600,00675,00467,00451,00506,00516,00459,00216,00451,00528,00503,00211,00195,00425,00468,00450,00462,00498,00489,00502,00181,00496,00467,00517,00470,00477,00237,00227,00180,00426,00484,00117,00221,00311,00197,00319,00339,00356,00295,00316,00372,00299,00334,00380,00125,00122,00287,00340,0063,00177,00342,00145,00384,00283,00317,00387,00282,00361,00207,00319,00179,00241,00106,00327,00159,00189,00194,00172,00196,00193,00177,00166,00174,0082,00213,00181,00197,00173,00158,00202,00209,00170,0084,00140,0078,00121,00105,00102,00101,00175,0096,00191,00159,0062,00172,00279,00278,00147,00337,00299,00173,00254,00370,00327,00168,00271,00290,00365,00328,00398,00227,00355,00176,00330,00184,00207,00344,00221,00295,00342,00293,0083,00307,00330,00268,00236,0085,00109,00109,0059,00116,00131,0084,0090,00105,00157,0058,00144,00140,0068,00108,00136,0091,0020,0061,00104,00120,0054,0070,00122,0086,0099,00112,0081,00109,00106,00129,003,004,002,006,003,004,003,006,002,002,004,002,002,005,003,005,002,006,004,001,004,003,005,002,001,004,002,002,0010,0050,0042,0070,0080,0059,0032,0061,0056,0031,0066,0027,0071,0044,0063,0083,0037,0033,0023,0058,009,0036,0026,0030,0017,0052,0029,0064,0053,0031,0059,0051,001,001,001,001,001,003963,003933,004900,004345,004523,004226,004792,004880,004404,003798,004898,004161,003710,004971,003929,003986,003765,003862,005197,003782,004971,003920,004668,004581,003838,004296,003631,003670,003533,003976,003914,0043,0017,0015,0039,0028,008,0029,0022,0020,0019,0015,0017,0024,0014,0022,0017,0029,0025,0018,0016,0021,0014,0018,0023,0024,0031,0025,0030,0027,0013,0013,001,004,001,002,004,002,001,002,002,002,001,005,004,003,008,004,005,003,003,002,002,002,002,002,004,003,001,001,002,0080,00271,00146,0091,00117,00268,00124,00100,00139,0095,00118,00107,00145,0099,00125,00104,00100,00125,00167,00138,00118,00143,00167,00108,00129,00116,00100,0073,0098,0097,00137,00569,00562,00232,00483,00607,00218,00565,00520,00591,00597,00620,00213,00573,00546,00621,00569,00253,00441,00609,00583,00241,00547,00517,00620,00606,00214,00219,00224,00637,00603,00148,00414,00435,00487,00463,00499,00559,00532,00191,00497,00552,00397,00210,00504,00482,00474,00522,00528,00192,00315,00515,00310,00553,00430,00489,00183,00424,00338,00453,00434,00209,00340,00254,00117,00159,00285,00201,00290,0087,00290,00195,00249,00173,0092,00222,00257,00284,00224,00166,00242,00318,00260,00237,00237,00193,00169,00248,00119,00228,00111,00185,00298,00190,00134,00145,00118,00137,00131,00109,00140,00103,00175,00140,00129,00105,00135,00111,0089,00120,0090,0085,00115,00141,00117,0090,00147,00158,0072,00130,0093,00171,00139,0048,00134,00424,00367,00378,00378,00285,00387,00449,00449,00165,00199,00291,00307,00258,00306,00301,00303,00478,00371,00243,00317,00444,00390,00374,00417,00336,00317,00368,00376,00413,00216,00340,0083,0056,00104,00142,00118,00110,00136,00118,0096,0071,0064,0080,00115,0096,0046,00151,0064,0082,0075,0074,0057,00140,00120,0022,0076,0078,00134,00119,00116,00136,00140,005,004,0017,001,004,005,0011,002,007,004,0012,007,004,001,002,007,002,001,004,004,002,004,004,001,005,008,005,004,00210,00114,00171,00175,00145,00179,00157,00182,00161,00119,00178,0045,00169,00134,00139,00104,0096,00136,00168,00179,0092,00112,00119,00157,00182,00114,00148,00204,00200,0098,0088,001,001,001,001,001,003509,005039,003384,005405,003631,003577,003702,004171,003777,003445,003448,003902,003824,003286,005732,005641,004036,003484,003887,003408,003639,003935,005870,003499,003778,003546,006526,003661,003789,004206,004410,0015,0030,0018,0030,0025,0012,0028,0020,0014,0021,0028,0031,0015,0027,0021,0028,0028,0032,0023,0022,0019,0036,0016,0042,0016,0027,0025,0021,0012,0038,0020,003,001,005,001,003,003,001,001,005,003,002,002,002,002,001,003,001,002,005,003,004,003,001,002,001,003,003,00</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1487,11 +1483,7 @@
       <c r="C3" t="n">
         <v>47</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>113,00124,00143,00118,00149,00165,00143,00267,00133,00132,00297,00340,00203,00297,00304,00177,00131,00179,00178,00192,00123,00147,00157,00193,00236,00123,00259,00163,00317,00438,00737,00851,00715,00319,00884,00895,00800,00793,00826,00821,00817,00356,00793,00830,00851,00300,00746,00834,00801,00753,00312,00254,00258,00233,00836,00150,00205,00212,00269,00200,00495,00233,00539,00214,00540,00521,00490,00497,00108,00558,00197,00475,00550,00288,00484,00569,00503,00507,00543,00455,00491,00284,00552,00508,00192,00356,00350,0098,00330,00343,00197,00163,00163,00333,00140,00361,00149,00315,00357,00361,00354,00366,00322,00222,00318,00305,00382,00202,00339,00340,00180,00427,00216,00110,00170,0098,00194,00191,00198,00210,00158,00104,00148,00185,00164,0080,0085,00169,00174,00192,00218,0099,0073,00195,00182,0086,0083,00108,00219,00213,00189,00387,00366,00221,00341,00314,00369,00335,00240,00237,00386,00152,00309,00287,00169,00327,00352,00247,00310,00358,00380,00310,00206,00358,00374,00152,00158,00340,00161,00119,00121,0067,0049,00146,00145,00134,00123,00149,00138,0094,00100,0057,00119,00103,0062,00141,00110,00120,0065,0075,00125,00154,0094,0092,00146,00145,003,001,001,001,006,002,005,001,002,0011,002,003,008,007,0010,001,005,001,002,008,003,0011,004,006,0014,005,0020,0040,0055,0036,0043,0052,0045,0052,0063,0065,0065,0024,0071,0033,0075,0068,0032,0023,0063,0087,0043,0060,0046,0070,0048,0058,0056,0054,001,001,001,001,001,001,003634,003730,003527,003816,004133,003440,003544,003403,004870,003555,003966,004602,003612,004053,003645,003922,002435,003386,003596,003647,004178,004056,003933,004534,008263,006464,004177,005885,0013,0026,0017,0016,0021,0023,0022,0018,0025,0015,0015,0021,0040,007,0015,0033,0014,0012,0015,0015,0019,0063,0014,0034,0026,0022,0017,0051,001,002,001,004,004,002,001,005,003,004,003,005,005,003,003,003,001,002,002,003,001,002,001,00164,00155,00127,00196,00153,00152,00138,00230,00237,00171,00120,00140,00216,00173,00145,00224,00334,00143,00206,00167,00262,00121,00121,00148,00141,00245,00360,00216,00670,00679,00234,00681,00175,00626,00248,00725,00617,00619,00652,00642,00646,00265,00609,00579,00601,00268,00641,00252,00221,00262,00558,00244,00290,00611,00528,00625,00545,00513,00206,00521,00585,00549,00202,00390,00531,00594,00566,00370,00552,00547,00538,00553,00335,00462,00526,00216,00205,00416,00543,00433,00478,00236,00357,00196,00244,00146,00207,0099,00283,00265,00189,00140,00153,00244,00281,00308,00131,00254,00347,00264,00128,00293,00293,00238,00248,00255,00310,00105,00195,00288,00299,00259,0097,00157,0084,00100,0093,00143,0088,00138,00146,00168,00123,00118,00123,0086,00142,00139,00110,00104,0076,00123,00161,0078,0069,0080,00136,00104,00143,00153,00334,00223,00292,00256,00364,00232,00455,00507,00429,00373,00291,00507,00479,00462,00252,00460,00241,00235,00368,00432,00361,00357,00382,00424,00364,00441,00475,00397,00120,00138,0092,00149,00152,00142,0053,00116,00140,00122,0063,00136,0063,0071,00135,00107,00156,00106,0092,0070,0038,0071,00100,0065,0079,0094,00142,00136,001,005,004,005,007,005,008,006,004,004,003,002,004,007,005,004,006,006,006,004,004,005,001,004,002,002,004,00115,00148,00170,00154,0089,0096,00138,00147,00141,00100,00161,00177,00156,0078,00146,00153,00160,00131,00171,00103,00152,00155,0086,00175,0085,00112,0093,0094,001,002,001,001,001,002,005528,003748,004897,003357,003258,003804,003689,003524,003190,006571,003458,003600,003574,003495,004164,005529,003448,004379,003570,003184,003921,003373,004296,005621,004307,004122,003263,003714,0019,0017,0021,0028,0036,0024,0048,0027,0019,0025,0067,009,0016,0018,0021,0036,0017,0017,0026,0030,0021,0027,0023,0012,0022,0040,0021,0021,003,003,002,003,001,001,002,001,001,003,004,001,004,001,001,005,003,001,003,001,001,002,002,003,001,003,001,00</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1505,11 +1497,7 @@
       <c r="C4" t="n">
         <v>57</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>143,00172,00194,00274,00146,00249,00349,00185,00147,00293,00135,00166,00132,00126,00160,00135,00151,00146,00199,00145,00277,00152,00231,00171,00161,00125,00127,00193,00317,00178,00178,00854,00870,00332,00253,00881,00902,00833,00832,00828,00811,00783,00855,00861,00938,00846,00789,00241,00760,00356,00346,00816,00786,00826,00244,00340,00251,00839,00777,00816,00839,00790,00565,00529,00501,00526,00524,00235,00519,00207,00544,00554,00511,00569,00201,00562,00502,00500,00542,00538,00229,00471,00235,00499,00509,00508,00521,00509,00218,00246,00232,00525,00498,00348,00348,00392,00363,00364,00381,00369,00161,00214,00377,00373,00357,00323,00366,00188,00356,00314,00126,00350,00342,00384,00108,00172,00329,00373,00341,00344,00132,00319,00350,00139,00183,00219,00219,00151,0097,00210,0071,00203,00213,00164,00201,00231,00102,00211,0098,00157,00270,0086,00206,00230,00215,0099,00182,00152,00191,0096,00165,00183,00181,00197,0093,00252,00170,00388,00393,00358,00397,00405,00393,00383,00350,00443,00411,00339,00172,00440,00451,00208,00288,00357,00338,00231,00168,00358,00155,00319,00384,00356,00205,00342,00398,00389,0080,00101,0064,00132,00136,00141,0062,00153,00102,00121,0050,00121,00158,0072,0096,00130,00144,0058,0096,00125,0057,00119,00149,00129,00123,0069,00129,00145,00132,00123,00142,006,006,002,008,002,004,005,002,004,001,003,004,003,004,003,004,005,003,002,004,001,0012,005,002,003,004,003,003,001,004,003,0066,0087,0064,0055,0061,0043,0051,0051,0044,0030,0063,0070,0032,0068,0032,0039,0049,0046,0072,0035,0040,0028,0057,0045,0064,0054,0056,0050,0044,0072,0043,002,004834,004721,003539,003250,003764,004126,003530,004405,003734,003966,003441,003734,004655,003511,004855,004768,004524,003414,003585,003905,003364,003238,004764,004222,003305,003286,004451,003417,003697,003570,004947,0029,0024,0015,0037,0021,0018,0017,0025,0033,0034,0025,0014,0024,0022,0020,0020,0024,0024,0025,0025,0020,0014,0029,0037,0011,0019,0029,0024,0042,0022,0025,002,003,005,003,001,006,002,003,001,002,001,003,002,003,002,001,001,004,001,003,005,001,004,003,002,001,005,00151,00238,00137,00183,00286,00177,00160,00158,00151,00149,00192,00172,00149,00140,00122,00184,00359,00142,00171,00124,00133,00148,00142,00136,00140,00199,00174,00221,00306,00353,00194,00777,00630,00689,00625,00624,00683,00722,00705,00678,00631,00666,00653,00262,00597,00287,00285,00581,00611,00704,00276,00586,00640,00668,00260,00257,00578,00259,00296,00676,00556,00643,00211,00471,00553,00569,00544,00536,00347,00567,00546,00581,00570,00416,00566,00524,00571,00216,00217,00546,00578,00576,00563,00537,00462,00381,00461,00569,00576,00212,00359,00387,00473,00352,00348,00349,00136,00227,00288,00239,00311,00250,00282,00336,00358,00108,00183,00274,00319,00257,00222,00215,00279,00143,00328,00152,00268,00301,00237,00347,00285,00247,00218,00211,00155,00134,00149,00178,00131,00160,00168,00139,00111,00120,00182,00130,00113,00173,0087,00144,0092,00135,00152,00128,00124,0089,00152,00136,00161,0088,00119,00135,00155,0076,0094,00254,00452,00354,00359,00377,00355,00414,00390,00257,00389,00479,00321,00281,00415,00492,00249,00486,00475,00459,00487,00490,00449,00357,00403,00496,00407,00348,00505,00330,00452,00308,0080,0093,0077,00157,00125,00143,00115,00143,0067,0081,0066,00143,00124,0096,00145,00125,0088,00137,0094,00120,00108,0071,00112,00102,00110,0069,0061,00119,00134,00142,00136,002,008,007,007,004,009,001,005,004,006,003,002,003,007,004,002,003,006,004,001,002,005,008,009,004,003,003,00132,00111,00188,00129,00143,00202,00226,00149,00227,00195,00109,00130,00163,00193,00107,00122,00186,00190,00165,00115,00190,00108,00138,00129,00138,00136,00136,00173,00204,00132,00150,001,001,002,001,001,003437,003152,003404,004365,003268,003182,003576,003138,003326,003225,003517,003281,004057,005882,003519,005636,004237,005533,003141,004472,003772,005621,003886,003512,003350,004301,004185,003516,003361,003396,003790,0027,0017,0020,0021,0033,0016,0020,0022,0019,0017,0044,0025,0022,0016,0019,0020,0041,0014,0020,0027,0017,0028,0020,0031,0032,0024,0018,0032,0043,0015,0016,002,004,002,001,003,002,003,005,002,004,001,002,006,001,004,002,003,007,001,004,004,007,001,003,003,005,00</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1523,11 +1511,7 @@
       <c r="C5" t="n">
         <v>69</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>234,00225,00178,00149,00247,00158,00176,00210,00169,00158,00235,00148,00146,00140,00196,00314,00159,00194,00186,00302,00183,00143,00201,00221,00140,00171,00145,00268,00198,00219,00781,00835,00264,00898,00813,00154,00838,00868,00851,00269,00850,00854,00200,00324,00242,00827,00244,00327,00247,00823,00820,00815,00310,00316,00802,00905,00151,00805,00979,00769,00213,00113,00208,00571,00206,00235,00251,00522,00178,00554,00504,00580,00533,00491,00545,00513,00484,00549,00567,00170,00229,00496,00556,00231,00586,00518,00195,00227,00548,00466,00382,00142,00112,00337,00141,00186,00167,00185,00402,00331,00198,00132,00373,00346,00312,00131,00344,00349,00331,0093,00341,00409,00398,00170,00346,00331,00371,00435,00323,00165,0078,00205,00213,00216,00164,00191,00176,0076,00188,00229,0087,00227,00106,00101,00172,0076,00185,00100,00106,0097,00247,00123,00220,0075,0093,00242,00164,00165,00249,00148,00338,00303,00178,00249,00373,00139,00356,00143,00150,00329,00198,00349,00459,00342,00408,00244,00169,00416,00171,00419,00138,00431,00385,00362,00167,00364,00393,00419,00404,00391,00156,0065,0074,00155,00104,00129,0083,00116,0069,00152,00108,00159,0070,00142,00131,0083,00129,0061,00149,00123,0075,0090,00124,00162,0090,00115,00141,00122,0059,00149,001,002,001,002,004,004,002,001,007,001,003,003,001,006,004,004,006,007,005,005,004,003,003,006,0011,001,004,0022,0064,0051,0044,0039,0049,0045,0051,0015,0040,0049,0052,0029,0038,0026,0035,0047,0025,0046,0035,0053,0039,0073,0052,0025,0037,0033,0038,0030,0036,003,001,001,002,004028,003663,003411,003345,003862,003628,004753,004254,003232,008420,004899,003467,003507,004174,003949,003538,003497,003725,003983,003813,003647,003972,004516,003688,005790,006431,004398,005622,006273,005885,0021,0012,0017,0021,0021,0015,0035,0018,0018,0031,0025,0031,0014,0025,0061,0019,0024,0035,0079,0018,0011,0031,0028,0011,0019,0024,0023,0052,0036,0027,003,002,003,002,005,002,002,002,002,009,002,006,002,002,005,002,003,005,002,001,003,002,002,009,002,00202,00186,00179,00342,00181,00209,00183,00184,00132,00189,00183,00246,00249,00129,00179,00314,00144,00307,00194,00137,00153,00183,00167,00144,00190,00157,00144,00166,00143,00138,00250,00649,00584,00255,00718,00575,00638,00125,00663,00263,00290,00645,00657,00595,00237,00727,00679,00175,00653,00277,00278,00607,00263,00615,00262,00688,00210,00613,00725,00702,00367,00548,00580,00188,00637,00489,00540,00138,00450,00560,00599,00548,00206,00150,00585,00531,00369,00203,00314,00577,00393,00577,00560,00364,00369,00612,00184,00189,00465,00579,00233,00287,00291,00347,00121,0080,00174,00128,00275,00311,00171,00112,00308,00313,00263,00332,00260,00217,00338,00272,00303,00329,0068,00275,00257,00223,00181,0093,00240,00354,00181,00144,00136,00125,0069,00145,00164,00118,00152,00195,00161,00101,00112,00106,00173,0073,00163,0096,0090,0091,0074,00115,00150,00136,00123,0082,0065,00174,0063,00184,00428,00221,00194,00443,00182,00373,00363,00283,00285,00460,00370,00395,00354,00309,00385,00339,00326,00500,00265,00247,00403,00372,00504,00351,00355,00455,00462,00482,00205,00486,0065,00138,0077,00148,0096,00138,00132,0058,00155,00140,0092,0045,00153,00158,0082,00131,00126,00171,00114,00105,00120,0066,0059,00162,0057,0077,00156,00138,0091,0076,006,006,007,002,002,002,003,006,001,005,002,003,007,0014,001,002,003,0012,003,004,005,006,001,006,006,007,005,004,00183,00136,00198,00109,0087,00224,00106,00137,00180,00236,00158,00219,00201,00242,00122,00159,00191,00118,00151,00192,00227,00160,00135,00121,00114,00185,00184,00129,0089,00203,001,002,002,001,001,001,003742,003947,003675,003397,004775,003447,004690,003203,008373,003552,003443,003359,004314,003881,003304,0011298,003964,003510,003418,004399,003258,004932,003689,004106,002836,004519,004915,003509,003252,003267,0081,0075,0021,0032,0020,0059,0023,0026,0028,0017,0030,0025,0019,0023,0024,0032,0036,0021,0011,0018,0042,0047,0024,0022,0016,0013,0027,0027,0021,0023,002,001,006,005,002,003,0015,003,004,001,002,002,003,006,004,004,002,001,001,003,003,002,003,003,003,002,004,00</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1541,11 +1525,7 @@
       <c r="C6" t="n">
         <v>47</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>139,00137,00266,00154,00191,00126,00125,00145,00205,00191,00169,00165,00140,00293,00146,00180,00170,00222,00203,00155,00139,00145,00270,00264,00280,00153,00212,00156,00344,00177,00203,00757,00830,00312,00853,00859,00876,00853,00855,00854,00813,00858,00837,00856,00251,00396,00905,00852,00207,00353,00860,00922,00825,00893,00822,00838,00257,00870,00338,00311,00868,00260,00553,00630,00481,00567,00543,00575,00556,00549,00559,00555,00532,00597,00482,00489,00482,00216,00237,00207,00504,00291,00247,00512,00643,00523,00230,00228,00586,00488,00613,00241,00226,00341,00366,00382,00374,00176,00369,00371,00335,00407,00183,00361,00404,00359,00336,00137,00389,00344,00383,00368,00123,00400,00391,00334,00181,00388,00159,00208,00343,00192,00398,00161,00201,00166,00201,00207,00206,00202,00202,00212,00208,0086,00184,00197,00217,00220,00101,00189,00158,00159,0094,00181,0092,0077,00107,00121,0074,00155,00204,0083,00160,00224,00220,00240,00411,00219,00144,00420,00390,00348,00390,00361,00346,00292,00352,00324,00192,00355,00368,00360,00314,00345,00170,00171,00288,00222,00317,00343,00332,00388,00309,00242,00226,00380,00150,00103,0076,00122,00107,00164,0065,00132,00121,00152,00134,0096,0077,00159,00137,00136,0056,0054,00124,00166,00117,0059,00156,00146,00130,0083,00134,00130,0059,00140,00119,003,004,004,004,002,002,004,003,003,002,002,002,004,001,002,003,005,002,002,003,001,001,002,001,001,002,001,007,001,003,0061,0045,0053,0057,0064,0045,0030,0047,0022,0047,0040,0053,0048,0025,0051,0058,0046,0028,0033,0035,0055,0034,0042,0031,0052,0056,0040,0029,0028,0055,0047,001,001,001,001,005486,004330,004882,003462,004071,003937,005444,003660,004800,004285,004071,003704,003442,004458,004259,004369,003446,003698,003349,003707,003352,003668,003495,003684,003568,003671,004796,003380,003464,004300,003471,0025,0020,0015,0017,0019,0017,0021,0020,0040,0018,0017,0013,0020,0021,0016,0026,0023,0030,0032,0041,0015,0019,0021,0021,0023,0020,0024,0032,0015,0030,0022,003,004,009,001,004,001,002,003,002,003,001,002,002,005,004,003,001,002,002,002,001,001,003,003,002,003,00132,00121,00205,00144,00137,00196,00146,00330,00160,00155,00139,00304,00164,00148,00161,00162,00248,00146,00136,00150,00168,00161,00219,00231,00416,00203,00322,00179,00140,00151,00185,00586,00608,00720,00608,00267,00685,00629,00547,00590,00645,00597,00276,00268,00630,00641,00556,00275,00716,00687,00288,00663,00511,00320,00593,00669,00264,00609,00696,00257,00236,00676,00462,00579,00620,00573,00628,00604,00605,00560,00483,00613,00580,00540,00357,00189,00662,00389,00455,00651,00557,00200,00629,00186,00374,00513,00369,00617,00419,00656,00229,00636,00612,00128,00260,00264,00232,00212,00351,00317,00305,00104,00133,00181,00196,00279,00328,00158,00244,00299,00187,00293,00247,00288,00268,00337,00311,00261,00270,00351,00308,00187,00284,00193,00159,0084,00156,00182,00116,0087,00148,00129,0091,00158,00121,00179,00146,00125,00149,00143,00144,00100,00128,00158,00151,00140,0092,00136,0084,0088,00135,0090,00135,00173,00112,00332,00377,00465,00370,00470,00494,00434,00474,00377,00402,00499,00433,00397,00440,00390,00381,00259,00323,00276,00237,00382,00349,00383,00327,00474,00430,00450,00406,00423,00516,00251,0089,0077,0064,00132,0075,0076,00151,0075,00153,00133,0074,00160,00137,0099,00111,00133,00141,0076,0087,00123,0092,00146,0084,00124,00145,00126,0070,00146,00124,00108,0086,004,003,002,004,004,003,003,004,004,004,002,004,003,001,002,001,002,005,001,003,003,008,002,007,004,005,009,002,002,005,004,00189,00136,00179,00162,00195,00201,00185,00176,00201,00178,00143,00167,00158,00105,00145,00166,00113,00107,00135,00103,00188,00171,00126,00100,0091,00163,00116,00121,00188,00154,00187,001,001,002,001,001,001,001,001,004416,003219,004741,003872,004212,004167,003387,003651,003398,003398,003181,003665,003092,003500,005502,003309,003232,003336,007566,003517,007252,003859,003439,003446,003620,005523,003490,003499,003851,004893,004134,0022,0019,0024,0028,0019,0017,0020,0021,0048,0054,0018,0029,0031,0064,0014,0020,0027,0035,00163,0084,0019,0047,0037,0023,0035,0064,0045,0049,0029,0049,0018,002,002,003,005,004,0019,001,002,007,0010,007,004,004,002,002,001,003,008,003,003,004,002,002,008,003,002,006,002,00</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1559,11 +1539,7 @@
       <c r="C7" t="n">
         <v>49</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>148,00161,00262,00229,00181,00144,00221,00200,00131,00282,00244,00187,00192,00162,00164,00171,00226,00154,00160,00141,00137,00135,00178,00170,00144,00132,00165,00299,00178,00187,00845,00244,00825,00838,00811,00846,00877,00871,00838,00839,00823,00833,00815,00872,00774,00375,00899,00782,00232,00855,00262,00813,00714,00332,00863,00816,00237,00309,00307,00303,00569,00201,00526,00221,00421,00210,00542,00231,00510,00555,00596,00242,00568,00529,00530,00531,00224,00518,00494,00522,00203,00534,00561,00563,00211,00534,00489,00537,00349,00555,00360,00214,00218,00381,00179,00349,00371,00332,00360,00146,00179,00123,00349,00329,00196,00386,00303,00389,00259,00322,00189,00386,00355,00130,00372,00357,00362,00339,00355,00375,00194,00219,00115,00191,00100,00204,00158,00197,0073,00202,00234,00161,0071,00117,00155,00179,00189,00109,00160,00221,00208,0080,00159,0098,00198,00230,00202,0086,00183,0081,00249,00232,00177,00353,00200,00163,00333,00363,00228,00349,00320,00311,00335,00379,00386,00288,00257,00373,00344,00344,00384,00199,00402,00353,00358,00163,00259,00291,00312,00326,0077,00148,00108,0078,00125,00145,00168,00120,00135,00144,00139,00115,00172,0077,0067,00163,0076,0078,00167,00121,00113,00129,0075,0058,00147,0067,00178,00155,00123,00152,001,001,0012,002,003,003,002,002,001,003,004,001,003,004,006,003,001,004,002,003,002,001,001,004,005,001,0051,0049,0041,0028,0040,0058,0049,0026,0058,0020,0035,0023,0035,0039,0048,0043,0039,0045,0025,0029,0032,0034,0051,0042,0047,0048,0043,0031,0054,0048,002,001,001,003991,005128,003794,003668,004585,004361,003541,003443,003759,004641,003307,003476,003496,006344,003669,003570,003720,005547,004005,004036,004255,004022,003544,004190,004507,003787,005168,005028,003354,004809,0024,0021,0016,0013,0020,0015,0015,0019,0029,0023,0020,0016,0023,0041,0056,0030,0020,0023,0023,0024,0022,0024,0039,0021,0021,0029,0044,0030,0035,0023,005,003,002,003,002,002,003,001,004,003,001,001,002,004,001,006,006,002,004,001,002,002,005,003,001,003,003,002,001,00171,00145,00161,00258,00200,00159,00199,00158,00203,00294,00130,00160,00208,00302,00148,00148,00182,00135,00171,00171,00170,00132,00184,00160,00158,00151,00164,00149,00152,00280,00300,00656,00255,00264,00700,00654,00606,00639,00597,00229,00610,00703,00606,00342,00629,00634,00651,00662,00487,00266,00245,00264,00599,00577,00634,00255,00576,00598,00580,00690,00183,00559,00606,00569,00210,00602,00449,00469,00390,00600,00499,00678,00568,00612,00589,00219,00341,00596,00458,00390,00419,00375,00226,00508,00611,00554,00607,00444,00559,00564,00263,00202,00215,00228,0093,00291,00162,00330,00272,00289,00309,00132,00270,00297,00174,00282,00144,00240,00356,00212,00345,00346,00207,00322,00294,00243,00271,00278,00331,00277,0083,00104,00136,0081,0085,0082,00137,00106,00165,00146,00143,00165,00109,00125,00163,00119,00132,00104,00141,00165,00154,0099,00124,00140,00118,00152,00120,00150,00138,0091,00303,00416,00445,00521,00352,00394,00481,00432,00357,00269,00511,00397,00283,00254,00366,00431,00373,00285,00413,00508,00422,00460,00423,00426,00497,00271,00234,00463,00282,00393,00129,00158,00159,00155,0099,00145,00120,00174,00155,0087,0072,00131,00114,00128,00100,00132,00144,0067,0086,00164,0074,0075,0073,0078,0079,0077,0095,00139,00123,00148,001,002,005,003,003,002,007,006,004,002,002,003,003,004,005,002,003,002,002,008,005,002,003,006,003,004,002,002,00135,00183,00180,0097,00113,00203,00159,00149,00204,00196,00165,00226,00127,00137,00200,00200,00183,00137,00129,00223,00197,00148,00195,00203,00217,00215,00100,00167,00167,00143,001,001,003482,003522,003735,003346,003214,005703,004195,003485,004989,003516,003561,003512,009506,004018,003455,003639,004018,004387,005080,004319,003628,004522,003547,003260,003240,003598,004095,003987,003412,003942,0029,0023,0020,0015,0040,0015,0013,0026,0084,0035,0025,0036,0029,0037,0021,0035,0026,0017,0025,0020,0021,0017,0022,0017,0031,0024,0018,0037,0024,0030,002,002,002,004,004,004,007,003,004,006,001,001,007,004,005,002,002,001,001,003,001,002,001,002,005,001,003,004,001,00</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1577,11 +1553,7 @@
       <c r="C8" t="n">
         <v>47</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>296,00154,00319,00153,00138,00276,00321,00233,00171,00159,00292,00260,00141,00160,00231,00175,00140,00300,00155,00131,00146,00166,00141,00135,00196,00226,00164,00125,00249,00134,00130,00847,00828,00854,00264,00316,00831,00336,00271,00890,00844,00349,00854,00862,00818,00822,00855,00819,00263,00833,00815,00851,00245,00249,00332,00895,00785,00823,00846,00849,00344,00883,00535,00586,00583,00504,00232,00559,00531,00511,00524,00535,00575,00593,00558,00572,00536,00542,00242,00231,00225,00552,00525,00254,00237,00222,00221,00540,00521,00237,00594,00535,00224,00372,00334,00352,00353,00363,00383,00399,00382,00409,00381,00133,00415,00337,00359,00129,00397,00224,00252,00344,00366,00359,00192,00320,00331,00333,00239,00161,00133,00388,00166,00146,00195,00206,0083,0086,00173,00196,00107,00194,00192,0074,00123,00178,00210,00100,00188,00181,00171,0095,00230,00186,0073,00171,00196,00214,0086,00171,0084,00190,00154,00165,00181,00372,00350,00378,00190,00370,00356,00195,00191,00322,00202,00364,00187,00347,00386,00405,00291,00366,00223,00369,00361,00159,00401,00335,00365,00180,00240,00323,00330,00350,00226,00374,00131,0071,0056,00186,0087,00125,0064,0091,0069,0064,00141,00157,0084,00116,00141,00152,00138,00119,00163,00145,00145,00172,00137,00161,0079,0069,00142,00141,00147,00118,00135,006,002,006,005,003,004,004,003,001,003,003,003,002,002,002,001,002,002,003,001,002,002,004,002,001,003,004,002,003,0040,0043,0035,0043,0043,0045,0044,0053,0045,0024,0022,0014,0055,0050,0035,0057,0034,0076,0044,0067,0057,0054,0026,0044,0061,0047,0031,0061,0051,0046,0025,002,001,001,003,001,005039,005190,005915,003714,003929,004032,005958,003829,004544,004255,004166,004097,004919,004060,004165,005416,006049,005378,004440,005746,004188,005174,003569,004395,004300,005182,003504,004182,004584,005818,003875,0030,0026,0023,0020,0034,0031,0020,0028,0035,0034,0037,0024,0021,0025,0041,0024,0032,0039,0020,0038,0019,0024,0039,0018,0022,0020,0019,0028,0024,0024,0022,002,002,001,002,003,001,003,002,005,001,005,003,003,001,002,003,005,002,001,005,002,004,001,002,001,001,002,005,002,003,00141,00177,00143,00152,00133,00225,00337,00162,00166,00290,00458,00164,00140,00140,00152,00124,00210,00126,00151,00144,00165,00135,00408,00193,00341,00150,00140,00196,00137,00242,00164,00650,00572,00669,00696,00604,00279,00593,00640,00580,00262,00660,00272,00685,00651,00264,00650,00619,00670,00256,00243,00617,00266,00591,00709,00665,00657,00300,00279,00269,00687,00616,00201,00546,00566,00360,00193,00594,00548,00585,00203,00488,00612,00617,00534,00371,00606,00395,00599,00610,00476,00390,00603,00617,00200,00481,00552,00211,00554,00590,00361,00564,00578,00321,00335,00242,00326,00306,00274,00269,00156,00306,00296,00248,00357,00446,00206,00358,00107,00319,00273,00295,00152,00220,00389,00208,00302,00274,00279,00255,00265,00181,00131,00241,00142,00128,00104,00106,00165,00155,00141,00135,00142,0090,0087,00116,00156,00153,00169,00135,00102,00156,00127,00138,0093,00162,00102,0069,0098,00104,0078,00150,0085,0082,00131,00483,00476,00251,00407,00467,00413,00395,00481,00454,00503,00444,00292,00424,00516,00317,00337,00372,00409,00423,00320,00355,00262,00506,00240,00429,00426,00484,00248,00328,00449,00358,00156,00163,00146,0067,00107,00124,00162,0076,0080,0081,0057,0099,0092,00123,00127,00131,00103,00149,0079,00119,00128,00150,00125,00148,00119,0085,00101,00155,0084,00144,0049,002,001,001,004,005,001,004,003,004,002,005,006,003,0010,003,001,004,004,005,001,002,005,001,007,001,00193,00114,00211,00201,00179,00135,00198,00173,00192,00129,00135,00191,00131,00213,0088,00195,00135,00117,00109,00103,00186,00141,00130,0068,00115,00177,00163,00115,00165,00173,00172,001,001,001,001,001,006140,004035,004014,004020,004064,005916,004608,004654,005034,005065,004481,003937,003402,004504,004084,008061,003764,007283,003740,003617,003798,006392,004691,003593,003463,005175,004668,004342,003875,004215,004752,0029,0019,0027,0024,0024,0020,0016,0036,0015,0028,0025,0029,0031,0029,0022,0038,0028,0016,0024,0041,0036,0036,0031,0040,0045,0047,0029,0021,0014,0025,0016,002,002,004,002,006,002,003,002,004,001,002,001,003,004,002,003,003,001,002,001,001,002,003,004,005,004,003,005,002,00</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1595,11 +1567,7 @@
       <c r="C9" t="n">
         <v>41</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>141,00150,00271,00349,00172,00136,00176,00146,00157,00168,00118,00214,00158,00167,00137,00167,00351,00347,00204,00188,00311,00220,00137,00133,00256,00141,00148,00168,00208,00143,00159,00906,00844,00848,00875,00918,00831,00814,00943,00874,00818,00869,00833,00230,00876,00235,00910,00832,00834,00222,00841,00803,00352,00805,00330,00828,00841,00786,00357,00343,00221,00810,00527,00215,00201,00549,00181,00253,00244,00581,00207,00554,00535,00544,00566,00542,00552,00543,00198,00552,00597,00540,00581,00250,00564,00521,00524,00553,00515,00519,00522,00537,00530,00369,00379,00433,00373,00172,00449,00428,00217,00400,00190,00406,00420,00216,00216,00123,00414,00150,00428,00371,00145,00414,00442,00351,00373,00415,00417,00387,00396,00384,00361,00424,0090,00218,0083,00161,00182,00207,0098,00224,00109,00205,00178,00202,00224,00104,00222,00219,00197,00113,00152,00232,00205,00101,00184,00224,00197,00221,00192,00213,00214,0091,00217,00351,00310,00393,00332,00402,00396,00192,00351,00334,00341,00357,00338,00228,00339,00167,00307,00306,00407,00343,00169,00178,00403,00374,00236,00381,00230,00387,00396,00158,00416,00365,00147,00137,00122,00155,00129,00176,00162,0082,0083,00161,00172,00132,0076,0097,00170,00193,0066,00151,00176,00151,0081,00190,00114,00180,00193,00188,0085,0070,00146,00152,00158,003,006,002,007,009,002,001,002,002,003,004,002,002,002,004,004,004,002,005,003,002,003,002,002,003,002,001,0065,0066,0021,0054,0063,0071,0029,0055,0064,0033,0046,0055,0059,0047,0063,0054,0028,0069,0044,0044,0068,0040,0059,0065,0023,0049,0040,0035,0096,0011,0047,002,001,001,001,003668,004838,003346,004281,003678,004813,004077,003526,003578,004930,003582,003519,003807,006296,003673,003614,006491,004155,004939,003775,004666,003574,003514,004912,004027,003589,004890,003943,004093,004074,003291,0029,0040,0033,0022,0034,0024,0025,0019,0021,0018,0022,0040,0026,0044,0023,0020,0032,0023,0031,0020,0012,0028,0047,0022,0023,0022,0026,0026,0020,0020,0022,002,002,003,007,004,004,003,003,002,002,002,002,001,005,003,002,003,003,001,003,003,004,003,001,002,001,004,002,002,00142,00143,00113,00147,00335,00197,00213,00226,00222,00166,00141,00131,00142,00154,00191,00174,00151,00203,00121,00136,00158,00226,00288,00162,00162,00349,00273,00352,00165,00132,00145,00291,00630,00257,00721,00549,00674,00295,00570,00681,00275,00659,00550,00731,00687,00677,00705,00742,00666,00254,00553,00258,00669,00709,00710,00672,00691,00657,00258,00658,00267,00615,00621,00189,00363,00373,00573,00602,00608,00600,00234,00480,00639,00358,00533,00615,00596,00505,00206,00423,00591,00608,00618,00633,00495,00485,00593,00484,00579,00474,00226,00619,00614,00287,00306,00217,00360,00250,00242,00289,00165,00165,00153,00297,00356,00346,00349,00341,00352,00380,00323,00363,00376,00342,00362,00341,00373,00280,00282,00239,00132,00189,00361,00278,0087,00142,00138,00146,00138,00146,00165,0085,00144,0085,00124,00115,0086,0092,00153,00146,00106,00148,00133,00137,0098,0094,00127,00133,0081,00140,00107,00100,00164,00122,0085,00469,00273,00489,00401,00400,00371,00496,00501,00534,00444,00476,00533,00550,00469,00515,00439,00431,00406,00346,00428,00240,00517,00447,00293,00339,00531,00510,00335,00348,00445,00315,00174,00104,00124,00100,00165,00163,00131,00115,00166,00180,00168,00152,0097,00153,00181,00156,00147,00178,0077,00167,0089,00166,0086,00135,00141,00108,0094,00189,00137,0079,00121,002,001,003,003,001,003,004,008,002,002,001,007,003,0011,003,006,006,002,003,004,004,005,001,004,001,001,00146,00175,00106,00180,00155,00187,00186,00127,00164,00156,00164,00172,00189,00129,00195,00197,00251,00130,00157,00196,00106,00124,00166,00188,00217,00148,00196,00188,00222,00123,00188,001,001,001,001,003615,003613,003544,003554,005975,004011,003570,003259,003506,003559,004348,004708,003804,003891,004332,004167,003663,003890,004711,003306,004436,003670,005927,006969,004016,003408,005658,004440,003346,003491,003439,0029,0019,0030,0033,0022,0028,0015,0035,0024,0019,0017,009,0014,0035,0033,0020,0023,0024,0025,0020,0031,0028,0026,0035,0028,0018,0022,0025,0010,0029,0027,003,001,002,001,004,002,001,001,001,001,001,002,001,004,003,001,007,001,002,001,002,004,003,001,003,004,002,001,00</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1613,11 +1581,7 @@
       <c r="C10" t="n">
         <v>49</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>159,00144,00204,00148,00163,00162,00202,00191,00239,00173,00143,00199,00230,00173,00134,00171,00133,00180,00237,00237,00161,00165,00269,00250,00229,00179,00299,00170,00146,00175,00835,00842,00320,00339,00906,00830,00372,00908,00904,00264,00850,00861,00918,00754,00911,00905,00827,00265,00340,00879,00249,00770,00400,00864,00817,00829,00337,00901,00904,00249,00476,00496,00523,00527,00209,00231,00296,00509,00213,00577,00241,00565,00520,00236,00588,00230,00583,00231,00603,00516,00559,00268,00576,00527,00593,00538,00243,00588,00593,00584,00400,00405,00398,00361,00269,00429,00420,00334,00412,00222,00478,00397,00391,00332,00188,00437,00164,00178,00448,00422,00198,00339,00448,00434,00349,00466,00171,00202,00203,00157,00211,00224,00225,00220,00198,00185,0096,00177,00199,00206,00226,00167,00197,00163,00232,00151,00212,00107,0094,0099,00149,0098,0094,00157,00101,00233,00155,00112,00112,00215,00386,00386,00301,00312,00190,00343,00367,00273,00153,00311,00343,00313,00347,00306,00335,00362,00366,00332,00191,00336,00382,00214,00209,00234,00163,00228,00314,00212,00246,00247,00130,00185,00171,00132,00191,00165,00153,00154,00128,00158,00196,00100,00144,00146,0084,0071,00136,00205,00160,00131,0081,00133,00192,0090,0094,0092,0084,0084,0092,00125,002,002,004,002,002,002,004,003,005,001,005,002,005,001,004,002,003,004,003,004,002,002,001,002,003,0046,0044,0032,0038,0044,0033,0038,0054,0040,0052,0052,0054,0040,0051,0039,0037,0047,0021,0053,0043,0056,0018,0051,0034,0042,0023,0037,0042,0035,0045,001,001,001,001,003,002,004902,004623,005818,003516,003457,004152,003574,003436,003972,003675,003663,005163,004352,003621,005002,004120,005097,003762,004169,003915,004685,003509,005241,006581,004435,003897,003699,004556,004897,004778,0022,0028,0023,0024,0026,0013,0045,0032,0019,0030,0027,0033,0024,0024,0025,0024,0026,0017,0057,0033,0018,0023,0027,0034,0039,0026,0040,0042,0019,0036,003,003,003,004,002,005,001,006,003,004,002,002,005,006,003,002,001,004,002,002,004,002,002,004,003,002,004,001,00203,00193,00135,00269,00280,00197,00165,00172,00324,00163,00284,00177,00233,00171,00160,00160,00143,00124,00132,00210,00168,00141,00131,00169,00197,00167,00161,00173,00197,00227,00701,00603,00720,00664,00677,00543,00597,00665,00658,00306,00274,00676,00604,00646,00255,00735,00303,00268,00690,00619,00661,00682,00380,00643,00755,00301,00266,00263,00660,00268,00593,00448,00597,00629,00549,00580,00199,00378,00598,00623,00615,00584,00400,00497,00599,00213,00348,00495,00603,00229,00173,00566,00211,00429,00448,00467,00377,00396,00597,00593,00160,00336,00330,00152,00328,00334,00243,00369,00257,00315,00333,00291,00308,00279,00331,00242,00393,00298,00213,00266,00241,00317,00303,00134,00403,00278,00242,00126,00342,00130,00138,00147,00140,00146,00126,00139,00174,00140,0066,00149,00143,00141,00139,00115,0074,00105,00145,00105,0085,0093,00129,00120,0084,00119,00118,0095,00166,0085,0084,00118,00416,00546,00476,00474,00421,00456,00559,00414,00341,00502,00440,00243,00303,00557,00463,00410,00545,00217,00366,00244,00311,00381,00572,00243,00459,00403,00266,00428,00402,00531,00207,0086,00145,00175,00181,0073,0085,00179,00160,00172,0076,00150,00144,00176,0072,0088,0077,00166,00152,00105,00104,0092,00145,0068,00164,0095,00145,0096,00153,00164,001,003,001,002,006,001,002,001,002,003,009,002,002,003,002,001,002,001,002,001,002,002,001,00199,0099,00139,00203,00203,0096,00187,00197,00129,00180,00131,00147,00118,0098,00209,00178,00185,00142,00123,00150,00217,00192,00154,00188,00167,00203,00134,0093,0065,00113,001,001,001,001,001,003,002,003415,004218,005385,004116,004560,004418,003313,004159,006026,003571,003527,003794,009965,003330,003847,004890,003917,003340,004161,005728,003747,003660,003600,003422,004084,004293,003729,003984,003417,003656,0022,0032,0020,0014,0022,0012,0023,0018,0023,0019,0024,0033,0026,0021,0023,0080,0034,0033,0031,0027,0028,0031,0021,0032,0029,0020,0020,0034,0019,0030,003,003,001,003,004,004,003,006,003,001,007,004,005,003,004,003,004,002,004,003,002,001,004,003,003,003,003,00</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1631,11 +1595,7 @@
       <c r="C11" t="n">
         <v>50</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>211,00240,00164,00129,00138,00141,00166,00113,00275,00181,00170,00104,00189,00139,00208,00143,00228,00274,00166,00293,00218,00121,00111,00215,00137,00145,00203,00180,00166,00160,00131,00246,00882,00903,00903,00306,00892,00842,00885,00371,00810,00818,00807,00888,00845,00367,00907,00846,00248,00247,00855,00322,00313,00252,00885,00869,00846,00898,00773,00834,00246,00868,00228,00535,00556,00533,00557,00598,00563,00565,00227,00529,00543,00233,00459,00543,00270,00524,00547,00216,00493,00205,00224,00514,00585,00549,00254,00217,00544,00546,00251,00538,00566,00211,00391,00407,00461,00333,00153,00437,00385,00345,00221,00424,00375,00440,00402,00210,00190,00136,00335,00418,00362,00234,00422,00388,00167,00388,00382,00262,00177,00392,00408,00402,00205,00203,0074,00196,00223,00102,0088,00225,00199,00191,00104,0089,00172,00127,00132,0098,00191,00232,00221,00166,00180,00233,00220,00164,00212,00203,00208,00228,00112,00103,00108,00277,00400,00224,00309,00240,00329,00298,00179,00367,00318,00382,00183,00232,00390,00386,00163,00226,00426,00353,00400,00358,00170,00376,00343,00230,00278,00281,00308,00363,00186,00377,0088,00179,00175,00175,00100,00180,00165,00181,00174,00167,00178,00187,00132,00163,00156,0078,00158,00128,00201,0095,00112,00135,00102,00103,00131,00176,00151,00203,0092,00174,0086,007,001,007,004,007,001,003,002,004,003,003,001,002,002,001,003,002,002,006,002,002,002,002,005,004,002,007,004,002,0031,0040,0059,0070,0039,0047,0028,0039,0082,0052,0059,0058,0042,0041,0036,0062,0039,0067,0064,0053,0038,0058,0028,0046,0065,0057,0064,0043,0058,0063,0085,001,001,001,001,001,003404,006242,004393,003583,003477,006031,003500,003941,004125,004969,003531,004184,004379,004658,003513,003595,003714,004784,005315,005280,003791,004508,003733,004134,004789,004007,005228,004045,003776,003812,004030,0029,0027,0031,0028,0028,0024,0035,0024,0027,0025,0027,0019,0061,0020,0017,0015,0048,0031,0032,0018,0027,0039,0016,0044,0039,0026,0024,0029,0018,0023,0035,004,003,005,001,001,003,003,001,002,001,005,004,005,001,002,004,002,002,001,004,003,002,004,001,005,001,002,006,005,00261,00140,00206,00144,00183,00308,00162,00168,00140,00141,00171,00205,00174,00150,00161,00283,00145,00230,00211,00153,00179,00155,00114,00132,00200,00123,00136,00325,00107,00123,00117,00290,00634,00651,00291,00777,00686,00712,00658,00366,00718,00292,00664,00720,00688,00281,00680,00653,00732,00288,00552,00715,00617,00260,00259,00700,00712,00639,00257,00274,00597,00715,00209,00641,00588,00357,00446,00388,00600,00572,00604,00654,00575,00605,00567,00608,00573,00199,00421,00348,00579,00531,00426,00375,00570,00497,00184,00586,00430,00628,00353,00594,00188,00273,00234,00133,00250,00385,00364,00286,00234,00375,00331,00145,00282,00323,00323,00269,00309,00264,00332,00274,00261,00285,00337,00356,00260,00191,00292,00340,00278,00161,00212,00140,00122,00148,0067,00138,00152,00134,0089,00134,00149,00124,0086,00145,00147,00158,0085,0087,00110,00111,00110,0091,00120,00106,00138,00102,00112,00101,00110,00121,00148,00173,0084,00263,00378,00497,00513,00228,00350,00540,00546,00267,00320,00526,00414,00408,00402,00490,00363,00548,00519,00386,00341,00574,00483,00344,00329,00457,00434,00411,00501,00389,00301,00468,00195,00124,00185,00117,00158,0088,00146,00179,00166,0082,00190,00137,00154,00171,00176,00191,0070,00125,0090,00163,00102,00110,0075,0073,0085,00136,00100,00168,0071,00110,00136,001,004,004,002,002,001,002,002,003,002,001,001,002,001,003,001,002,001,002,002,001,00113,00128,00143,00140,00187,0089,00145,00109,00222,00121,00152,00144,00186,00271,00212,00173,00166,00229,00208,00111,00221,00176,00216,00245,00151,00177,00250,00220,00158,00165,00163,001,002,001,001,001,001,003483,003466,004677,004605,003277,004321,003732,004101,004507,003683,003306,003781,003856,004210,0010200,003958,003697,004456,005472,003941,003290,003985,003467,004322,003648,005136,005666,003655,003602,003322,005678,0032,0021,0024,0026,0030,0045,0015,0034,0032,0021,0026,0019,0031,0067,0029,0027,0025,0046,0016,0035,0035,0030,0037,0012,0024,0036,0025,0038,0038,0026,0021,002,004,007,002,002,001,008,002,005,002,002,002,002,002,002,004,002,003,002,004,003,003,002,003,001,006,003,004,002,004,00</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1649,11 +1609,7 @@
       <c r="C12" t="n">
         <v>48</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>151,00186,00183,00168,00192,00196,00137,00171,00249,00157,00146,00194,00154,00330,00139,00179,00170,00284,00151,00139,00154,00176,00160,00125,00151,00223,00167,00112,00308,00203,00877,00860,00831,00395,00845,00771,00806,00792,00808,00857,00508,00842,00844,00257,00878,00852,00859,00256,00906,00302,00884,00773,00959,00205,00340,00810,00330,00878,00330,00224,00224,00421,00223,00565,00235,00532,00517,00391,00285,00202,00560,00526,00241,00560,00563,00546,00549,00459,00506,00220,00573,00557,00538,00495,00524,00206,00554,00236,00536,00585,00178,00341,00177,00432,00205,00410,00152,00312,00383,00436,00359,00444,00196,00421,00378,00159,00431,00177,00328,00414,00277,00451,00427,00377,00418,00405,00429,00359,00422,00182,00115,00193,00164,0094,00116,00183,0067,00197,00175,00208,00151,00188,0079,00171,00152,00203,00203,00188,00162,0089,00125,00179,00131,00161,00205,00142,00146,00169,0093,0090,00350,00291,00362,00264,00289,00299,00280,00139,00333,00354,00364,00272,00360,00209,00267,00304,00227,00321,00184,00220,00186,00286,00260,00341,00293,00149,00298,00200,00290,00210,00106,00135,0085,00190,00164,00194,0094,0097,00154,00100,00173,0099,00162,00151,00144,00174,00167,00140,00146,00182,0098,00155,00146,00141,0072,00157,00176,00181,0092,00168,001,002,004,003,004,004,003,001,005,003,004,003,002,004,002,004,001,006,006,002,004,008,005,003,002,001,0032,0049,0049,0042,0035,0046,0044,0023,0029,0046,0060,0041,0035,0038,0049,0057,0042,0028,0032,0029,0055,0056,0056,0041,0038,0079,0045,0043,0043,0043,001,001,001,001,001,004,003665,004863,004032,003700,003349,004362,004014,003505,003691,005055,005237,003862,003539,004405,003430,004010,003859,005175,004456,003854,003809,004179,003881,003425,004938,004588,004499,004633,004577,004050,0021,0033,0036,0031,0029,0032,0020,0023,0026,0024,0017,0026,0017,0035,0042,0026,0025,0018,0039,0013,0023,0030,0047,0015,0021,0019,0035,0018,0023,0023,004,001,006,003,004,002,003,008,002,006,001,001,004,002,004,001,002,002,003,002,007,004,003,002,004,001,005,001,003,003,00170,00211,00132,00148,00139,00175,00132,00124,00154,00160,00183,00164,00202,00162,00171,00328,00143,00145,00317,00181,00148,00313,00157,00144,00222,00137,00149,00211,00153,00202,00667,00585,00694,00302,00753,00399,00239,00557,00697,00705,00269,00656,00629,00253,00629,00701,00285,00257,00579,00647,00748,00370,00709,00785,00699,00677,00704,00750,00272,00304,00392,00420,00563,00557,00590,00557,00474,00594,00392,00569,00446,00544,00359,00205,00547,00565,00272,00526,00579,00457,00430,00189,00451,00361,00484,00177,00564,00192,00569,00584,00258,00241,00211,00238,00366,00232,00345,00202,00334,00250,00303,00137,00135,00270,00110,00291,00250,00245,00235,00317,00316,00308,00268,00272,00133,00255,00270,00320,00223,00147,00122,00137,0065,0079,00158,00143,00128,00108,00107,00132,00129,00124,0084,00102,00133,00149,0081,00107,00124,00122,00145,0089,00106,00152,00105,00150,00102,00111,00131,00136,00542,00327,00382,00521,00427,00240,00435,00258,00518,00468,00462,00289,00508,00266,00550,00389,00300,00420,00464,00481,00411,00497,00538,00505,00358,00460,00496,00409,00445,00183,00184,00134,00163,00160,00126,00115,00192,0094,0071,00165,00208,0076,00170,0087,00196,00211,00152,0082,00129,00187,00177,00171,00144,00153,00196,00195,00175,0060,0083,00103,001,001,001,002,001,001,003,002,003,002,001,004,003,002,001,001,001,005,001,004,002,001,001,001,007,002,00224,00189,00197,00160,00186,00122,00146,00161,00168,00193,00192,00195,00208,00171,00176,00138,00241,00116,00106,0070,00132,00100,00188,00140,00108,00193,00161,00103,00131,00182,004,001,002,001,001,002,003682,003847,003671,005855,003873,003475,003766,004443,003599,003424,003521,005451,004554,003841,003536,003307,003283,003700,003918,003596,003889,005223,004183,004397,003578,004102,004003,003735,008297,003810,0020,0024,0023,0027,0023,0030,0033,0032,0018,0021,0016,0028,0022,0015,0046,0016,0029,0021,0037,0025,0031,0040,0018,0031,0019,0030,0041,0034,0020,0025,009,003,003,001,002,002,003,007,005,003,003,002,004,002,002,001,003,003,003,001,002,002,003,002,003,002,004,006,002,002,00</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1667,11 +1623,7 @@
       <c r="C13" t="n">
         <v>70</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>133,00366,0018,00101,00392,00367,00109,0031,0014,0086,0099,00139,00370,00122,0093,0019,0062,00104,00372,0033,0032,0096,00343,00387,0097,00125,0038,00378,00300,00355,0092,00108,00388,00118,0016,00338,0075,00404,00106,00371,0091,00113,0048,0033,0079,0039,00345,00106,0055,00106,005,00405,00112,00107,00371,0056,0022,00285,00113,0092,00381,00325,0089,0083,00267,00272,00311,006,0019,0047,00359,0040,0026,0085,00309,00309,0062,00349,00114,00384,00330,0069,00312,0077,0040,0023,00314,0079,0058,00322,0015,0066,00147,00321,00322,0077,0018,00320,00147,0048,00357,0062,0034,0068,00129,0067,00156,0031,00133,0062,0035,00138,00309,0078,0083,00332,0099,00281,00129,0028,0063,0028,00317,0075,00309,0064,0050,0046,00254,0040,0027,0063,00326,0048,00108,0060,00103,0043,00121,00297,0090,0023,00259,0015,00115,0067,0035,0023,00218,00245,0048,0063,00102,0050,00266,00287,0013,002,00258,0029,00232,0030,0056,00263,00286,0062,00146,00122,0019,00271,0051,0023,0027,009,0029,00322,0071,0059,00222,00299,00140,00233,00257,0056,0027,00287,0060,0031,0030,0024,007,00136,0041,0025,0013,0083,0066,00150,009,0021,0073,0087,00122,0098,0030,0024,0025,00144,0013,0023,0027,0022,00145,00144,0030,0019,007,00111,00128,0018,0071,0021,0027,00145,00137,007,0019,0022,0071,00132,0028,00143,0099,0021,0090,0021,0017,0026,00123,0086,00158,0015,00112,00143,0064,009,002,0047,00136,0014,0020,00229,00213,0023,00220,00250,00205,00163,00137,0044,0075,0053,0042,00197,0038,00117,0044,0035,00165,0059,0055,0058,0024,00236,00112,00187,00250,0042,0058,00223,00230,0055,0038,0030,0019,0029,0051,00193,00209,0025,0028,00102,00174,0054,0027,00207,0067,0048,00221,0064,0057,00188,00187,0022,0013,00131,00196,0029,004,0010,00125,0048,0015,00127,0016,0031,00134,0064,0063,00127,0018,0026,0066,0027,00137,0022,00120,00161,0057,0025,0036,0022,0018,0025,00130,0024,0022,00104,0024,0057,00124,0038,00111,0012,0011,0029,008,0021,002,0074,00113,0037,00130,0022,0025,00151,0026,006,00145,0021,0022,0087,00116,0026,00106,0042,0074,00107,001,002,0018,005,003,001,004,002,002,004,002,001,003,001,001,003,002,003,001,002,002,002,002,003,001,003,003,003,002,001,001,003,005,001,0032,002,0015,004,0027,0023,005,001,0012,0024,005,0021,0022,0025,002,005,0031,004,0020,002,003,002,0016,0036,005,008,0035,002,0026,0028,005,001,008,004,0028,0018,001,003,0014,003,0030,0034,0012,003,0025,006,008,007,004,0029,003,0022,0018,004,0029,003,003,006,004,003,00214,00148,00307,00199,001740,001611,001379,001559,001261,00233,00192,00378,001460,00227,001696,001281,00205,002373,00229,00249,001367,00193,001460,001009,00255,001422,00222,00265,001312,00199,001361,001457,001544,00653,00352,00228,001433,00199,00196,001244,001386,00157,00235,001230,001644,00266,001419,001399,00207,001931,00231,00229,001592,00208,00217,0088,001742,001871,001254,00217,00220,002468,0010,001,0014,005,006,006,0011,008,002,005,001,003,002,001,0012,007,006,006,001,004,0012,0011,001,0015,001,001,009,007,004,001,001,0010,001,003,004,003,002,007,002,002,002,0011,006,002,001,003,001,001,009,002,002,007,002,002,002,001,002,004,001,001,001,001,001,001,001,001,001,001,001,003,002,002,002,00187,00161,00178,00204,00174,00209,00141,00159,00138,00166,00168,00183,00177,00196,00198,00155,00210,00135,00217,00154,00153,00190,00167,00205,00315,00336,00158,00164,00159,00124,00332,00130,00121,00280,00289,00382,00390,0079,00383,00221,00371,00322,00426,00385,00362,00147,00366,0018,00128,00106,00302,00398,00394,00378,0020,0050,00126,00404,00362,00402,00118,00363,00119,00147,00160,00175,0033,00149,00161,0063,0071,00137,00149,0057,00150,00183,0057,00178,0065,00143,0079,0013,0036,00182,00179,00150,00161,008,00155,00146,00120,0064,00118,0078,0041,0089,0041,003,003,0037,00107,0085,0039,0083,0075,0067,0017,0070,0073,0065,0081,0073,0082,0084,0087,0083,0038,0044,0063,0092,0023,0045,0092,0027,0023,0045,0029,0029,0039,0044,0014,0041,0039,0022,0029,003,005,0046,0048,0021,0019,0032,008,0043,0011,0056,0046,0023,0058,0024,0038,0036,0050,0040,0047,0057,0047,0054,0065,0069,0092,0028,0014,0054,0032,0011,0043,0010,0064,0040,0066,0038,0087,0081,0068,0071,0015,0037,0044,0032,0040,0092,00103,0051,0059,0068,0019,0014,0013,0021,0030,0019,006,001,0014,002,003,0012,009,0017,0018,0019,005,0027,0029,009,004,0020,0014,0019,0019,0012,0029,0015,0028,0017,0021,001,001,001,002,001,001,001,001,003,002,003,003,003,005,002,009,006,009,007,006,002,005,007,008,0010,007,006,005,004,006,005,0011,001,001,007,003,006,002,002,001,001,003,001,002871,003214,002832,003025,004319,002135,002662,002300,002313,002233,004073,002829,003457,003308,003394,002313,005221,002429,003030,003831,003063,003512,002436,003369,002992,002586,003456,002414,002369,003849,002889,0021,009,0022,0018,0025,0014,0019,0018,0024,0013,0027,0017,0030,0027,0027,0018,0018,0021,0013,009,0035,0013,0018,0012,0022,0025,005,0015,0014,0023,0021,001,002,001,001,004,002,001,001,002,001,001,003,002,001,003,001,001,004,001,001,003,002,001,002,002,001,0048,00357,00359,0070,0061,0023,0043,0041,0063,00145,00135,00188,0092,0057,00283,0075,0034,0055,0086,0090,0090,00357,0023,00132,0055,009,0045,00207,0062,0097,00134,0075,005,0046,00300,00197,00335,0029,0036,00342,00322,0034,00366,0063,00358,0030,0055,0034,0068,0033,00262,00211,0070,00279,00306,0051,0018,00183,00267,00292,0031,009,00202,00340,0042,0033,0097,00343,0013,0032,00280,0050,0083,00293,0056,0047,0035,008,0070,0025,0027,00176,00179,00314,00276,00328,0037,0023,00137,0046,00303,00178,0075,0063,0062,0045,0011,0071,00370,00246,0074,00111,0029,00332,00215,0025,00179,0011,0038,0037,0031,00253,0032,0051,00216,00338,00208,0034,00351,00102,0045,0010,0043,0038,0012,00128,0066,006,0020,00168,0043,00147,00195,0011,0043,007,00222,00249,00155,0023,00139,006,00144,00167,005,0032,0021,0039,0017,0028,00228,0014,00130,0028,00228,0062,0017,0018,00213,0048,0030,00201,00100,00156,00170,0016,009,0026,00127,0014,0039,00105,00165,00108,00128,0078,0021,005,0028,0055,0025,0012,00218,00212,0041,0035,007,0066,0047,003,009,0016,0011,0095,003,0014,0064,0014,00101,0093,004,0011,0020,0020,00113,0075,0064,008,0070,005,0068,0055,009,0021,0018,007,009,0053,00115,0020,0018,0057,0074,0080,0013,0011,0012,0073,004,0058,0060,0045,0073,0043,006,0012,001,002,0070,0010,0011,0010,0087,002,008,0088,0038,0039,0066,0045,0053,0084,00418,00236,0059,0041,0060,00377,00232,00275,0048,0047,00322,0086,00138,00119,0067,0079,0013,00190,0032,0049,0010,00366,0058,00298,00321,0042,00329,0061,0049,00260,00238,00418,0041,00408,0036,0063,00286,00180,00178,00342,0036,0012,0080,00292,00259,004,00300,0077,00261,0035,0032,00152,00267,0047,0029,00268,00319,0041,005,0019,0019,0052,0025,0066,0021,00143,00135,0030,0017,0010,00128,0011,009,00107,004,0089,0020,005,0021,0025,00185,00145,0053,0012,0023,0015,0094,0058,00122,00145,0016,0014,0015,0010,00149,0014,0029,0075,0093,00179,0077,0012,0019,006,00126,0057,0012,002,00150,00114,00109,0020,0023,009,00125,0056,00135,0019,0081,0011,004,002,002,001,002,001,001,001,001,002,002,004,001,001,001,001,001,0075,00101,0033,0028,0014,0023,00142,00110,00177,003,005,00157,00112,0017,0018,00131,00140,009,0018,0011,0028,00152,00105,0043,00149,0010,0019,0025,0024,00105,0097,00162,0092,00159,00101,0020,00135,0026,00159,0035,00173,00171,0015,004,0030,0027,0035,00172,004,0016,005,0044,00160,0032,00108,0020,00163,0024,0078,0026,0094,0021,00261,00225,001348,00600,001459,00174,00158,001705,00301,00259,002076,001700,001631,001448,00240,00218,00167,00176,001569,001428,00359,001326,00218,001349,00184,00213,001492,002357,001448,001391,00231,00209,00115,00214,001917,001298,00198,00186,001431,00916,00178,001309,001418,00212,001253,001256,00182,00209,001014,00218,00224,001627,001296,00221,00194,00125,001666,001944,00277,00325,001364,001288,006,005,001,001,0011,001,002,006,002,003,003,003,007,006,005,003,001,001,001,007,004,001,003,001,0014,003,006,003,002,0010,001,0013,006,005,007,005,002,007,008,002,001,007,001,008,001,006,001,001,001,001,003,001,001,002,001,001,001,002,001,002,001,002,001,00140,00198,00156,00144,00135,00204,00176,00188,00169,00188,00176,00152,00256,00190,00329,00162,00196,00176,00188,00123,00334,00215,00324,00215,00147,00175,00204,00147,00219,00158,00171,00327,00261,00112,00329,0082,00131,00126,0021,00103,00274,00275,00265,00338,0020,00293,00331,00128,00102,0059,00256,00298,00337,00379,00137,00346,00301,00224,00289,00302,00341,00333,00124,00101,00193,00160,00183,00118,00168,0037,0068,00138,0046,00165,0088,00197,00198,0018,00132,0023,00182,00124,00169,0053,0040,00134,00128,0011,00204,00172,00175,00187,00136,0033,0072,0062,0046,0062,0030,0060,0040,0038,0069,0055,0030,0054,0064,0071,0077,0061,0048,0047,006,0051,007,0026,0022,0021,0054,0014,0071,0061,0076,0039,009,0036,0048,0055,0027,0030,0025,0027,0016,0021,0042,0037,009,0045,0020,0043,006,0042,0016,0030,0027,0010,0019,0027,0029,0040,0024,0034,0033,0035,0047,00107,0014,00109,00108,0047,0063,0081,0099,00105,00130,0032,0077,0012,0070,0084,0067,0081,0027,0089,0070,00109,0099,0095,0052,0056,0097,0070,0079,0090,0063,0080,005,0029,002,0033,0036,0014,0028,0014,0029,005,0032,0014,0024,0025,0027,0017,0030,0031,008,0032,0015,0010,0027,0029,0027,0025,0029,0036,0037,0019,0028,001,001,001,002,001,002,001,0029,0024,0027,0014,0023,0010,0029,0013,0027,002,0036,0044,0029,0034,0021,0032,0029,0024,0016,0032,0021,0021,0029,0041,0032,0016,0016,0024,0025,009,006,001,002,001,001,001,001,001,001,003068,003704,003210,002850,004833,002789,002220,003920,002444,003183,002409,002263,002862,003031,003098,002030,002292,002410,003112,003234,002544,004036,004751,002529,004244,002059,002358,002644,003896,003038,002960,0025,0019,0019,0018,0010,0024,0012,0016,006,0016,0025,008,0018,0025,0021,0019,0027,0015,0024,0031,0018,0024,0030,0015,009,0031,0025,0018,0021,0018,0030,004,003,004,002,002,001,002,001,002,001,004,001,003,001,002,001,002,001,001,002,001,003,002,001,00</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
